--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -451,17 +451,13 @@
         <v>4.245999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.27</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>4.251999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>4.261999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>4.259999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>4.255999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -664,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -699,17 +661,13 @@
         <v>4.254</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -738,22 +696,14 @@
         <v>4.257999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -781,22 +731,14 @@
         <v>4.261999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -824,17 +766,13 @@
         <v>4.265999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.27</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -869,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1403,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1473,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1508,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1543,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1683,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2205,17 +2131,13 @@
         <v>4.204</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2244,22 +2166,14 @@
         <v>4.212</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2287,22 +2201,14 @@
         <v>4.223999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2236,14 @@
         <v>4.231999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2373,22 +2271,14 @@
         <v>4.243999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2306,14 @@
         <v>4.284</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2465,16 +2347,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2387,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2550,11 +2428,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2590,14 +2468,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2503,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2538,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2573,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2608,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2643,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2678,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2877,14 +2713,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2915,19 +2745,13 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>1.045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4528,14 +4352,20 @@
         <v>4.322</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.31</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4570,7 +4400,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +4439,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4640,7 +4478,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4675,7 +4517,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +4556,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4595,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4780,7 +4634,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4815,7 +4673,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4850,7 +4712,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4885,7 +4751,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4920,7 +4790,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +4829,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4990,7 +4868,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +4907,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5060,7 +4946,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5095,7 +4985,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5130,7 +5024,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5063,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5200,7 +5102,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5141,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5270,7 +5180,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5305,7 +5219,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5340,7 +5258,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5375,7 +5297,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5410,7 +5336,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +5375,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5480,7 +5414,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5515,7 +5453,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5550,7 +5492,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5585,7 +5531,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5620,7 +5570,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5655,7 +5609,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5690,7 +5648,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5725,7 +5687,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5760,7 +5726,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5795,7 +5765,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5830,7 +5804,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5865,7 +5843,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5882,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5935,7 +5921,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +5960,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6005,7 +5999,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6040,7 +6038,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6075,7 +6077,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6110,7 +6116,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6145,7 +6155,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +6194,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6215,7 +6233,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6250,7 +6272,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6285,7 +6311,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6320,7 +6350,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6355,7 +6389,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6428,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6425,7 +6467,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6460,7 +6506,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6495,7 +6545,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6530,7 +6584,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6565,7 +6623,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +6662,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +6701,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6670,7 +6740,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6705,7 +6779,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6740,7 +6818,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6775,7 +6857,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6810,7 +6896,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6845,7 +6935,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6880,7 +6974,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6915,7 +7013,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6950,7 +7052,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +7091,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7020,7 +7130,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7169,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7090,7 +7208,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7125,7 +7247,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7160,7 +7286,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7195,7 +7325,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7230,7 +7364,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7265,7 +7403,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7300,7 +7442,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +7481,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7370,7 +7520,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7405,7 +7559,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7440,7 +7598,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7475,7 +7637,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7510,7 +7676,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7715,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7580,7 +7754,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7615,7 +7793,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7650,7 +7832,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7685,7 +7871,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +7910,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C2" t="n">
         <v>4.27</v>
@@ -442,13 +442,13 @@
         <v>4.27</v>
       </c>
       <c r="E2" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F2" t="n">
-        <v>189.2271</v>
+        <v>37300</v>
       </c>
       <c r="G2" t="n">
-        <v>4.245999999999998</v>
+        <v>4.224499999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="C3" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E3" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>189.2271</v>
       </c>
       <c r="G3" t="n">
-        <v>4.251999999999997</v>
+        <v>4.226499999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="C4" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="D4" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="E4" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="F4" t="n">
-        <v>8512861.237600001</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>4.261999999999998</v>
+        <v>4.228499999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>4.25</v>
       </c>
       <c r="F5" t="n">
-        <v>19279375.9692</v>
+        <v>8512861.237600001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.259999999999998</v>
+        <v>4.230166666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>4.25</v>
       </c>
       <c r="F6" t="n">
-        <v>9286749.232899999</v>
+        <v>19279375.9692</v>
       </c>
       <c r="G6" t="n">
-        <v>4.255999999999998</v>
+        <v>4.231666666666664</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C7" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D7" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="E7" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F7" t="n">
-        <v>238.2629</v>
+        <v>9286749.232899999</v>
       </c>
       <c r="G7" t="n">
-        <v>4.253999999999999</v>
+        <v>4.233166666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>4.26</v>
       </c>
       <c r="F8" t="n">
-        <v>45181.7371</v>
+        <v>238.2629</v>
       </c>
       <c r="G8" t="n">
-        <v>4.254</v>
+        <v>4.234666666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C9" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D9" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="E9" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F9" t="n">
-        <v>109193.2084</v>
+        <v>45181.7371</v>
       </c>
       <c r="G9" t="n">
-        <v>4.257999999999999</v>
+        <v>4.235166666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>4.27</v>
       </c>
       <c r="F10" t="n">
-        <v>854.0983</v>
+        <v>109193.2084</v>
       </c>
       <c r="G10" t="n">
-        <v>4.261999999999999</v>
+        <v>4.236166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>4.27</v>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>854.0983</v>
       </c>
       <c r="G11" t="n">
-        <v>4.265999999999999</v>
+        <v>4.236999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>4.27</v>
       </c>
       <c r="F12" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>4.267999999999999</v>
+        <v>4.237499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>4.27</v>
       </c>
       <c r="F13" t="n">
-        <v>163999.1803</v>
+        <v>18000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.269999999999999</v>
+        <v>4.237833333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>4.27</v>
       </c>
       <c r="F14" t="n">
-        <v>3100</v>
+        <v>163999.1803</v>
       </c>
       <c r="G14" t="n">
-        <v>4.269999999999999</v>
+        <v>4.237999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>4.27</v>
       </c>
       <c r="F15" t="n">
-        <v>122999.3559</v>
+        <v>3100</v>
       </c>
       <c r="G15" t="n">
-        <v>4.269999999999999</v>
+        <v>4.238333333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>4.27</v>
       </c>
       <c r="F16" t="n">
-        <v>31100.9766</v>
+        <v>122999.3559</v>
       </c>
       <c r="G16" t="n">
-        <v>4.269999999999999</v>
+        <v>4.238666666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="C17" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="D17" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="E17" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="F17" t="n">
-        <v>10.0467</v>
+        <v>31100.9766</v>
       </c>
       <c r="G17" t="n">
-        <v>4.271999999999999</v>
+        <v>4.238999999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>4.28</v>
       </c>
       <c r="C18" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="D18" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="E18" t="n">
         <v>4.28</v>
       </c>
       <c r="F18" t="n">
-        <v>99</v>
+        <v>10.0467</v>
       </c>
       <c r="G18" t="n">
-        <v>4.275999999999999</v>
+        <v>4.239666666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C19" t="n">
         <v>4.29</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.3</v>
-      </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="E19" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="F19" t="n">
-        <v>241187.9302</v>
+        <v>99</v>
       </c>
       <c r="G19" t="n">
-        <v>4.281999999999999</v>
+        <v>4.241166666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C20" t="n">
         <v>4.3</v>
       </c>
-      <c r="C20" t="n">
-        <v>4.45</v>
-      </c>
       <c r="D20" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="E20" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F20" t="n">
-        <v>389355.7730602326</v>
+        <v>241187.9302</v>
       </c>
       <c r="G20" t="n">
-        <v>4.318</v>
+        <v>4.242666666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="C21" t="n">
-        <v>4.32</v>
+        <v>4.45</v>
       </c>
       <c r="D21" t="n">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="E21" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="F21" t="n">
-        <v>60000</v>
+        <v>389355.7730602326</v>
       </c>
       <c r="G21" t="n">
-        <v>4.327999999999999</v>
+        <v>4.246333333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.42</v>
+        <v>4.33</v>
       </c>
       <c r="C22" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="D22" t="n">
-        <v>4.42</v>
+        <v>4.33</v>
       </c>
       <c r="E22" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G22" t="n">
-        <v>4.355999999999999</v>
+        <v>4.248333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="C23" t="n">
-        <v>4.25</v>
+        <v>4.42</v>
       </c>
       <c r="D23" t="n">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="E23" t="n">
-        <v>4.25</v>
+        <v>4.42</v>
       </c>
       <c r="F23" t="n">
-        <v>200715.5205</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>4.347999999999999</v>
+        <v>4.252333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="C24" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D24" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="E24" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>200715.5205</v>
       </c>
       <c r="G24" t="n">
-        <v>4.341999999999999</v>
+        <v>4.253166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C25" t="n">
-        <v>4.38</v>
+        <v>4.27</v>
       </c>
       <c r="D25" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="E25" t="n">
-        <v>4.38</v>
+        <v>4.21</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G25" t="n">
-        <v>4.327999999999999</v>
+        <v>4.254333333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="C26" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="E26" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>4.323999999999999</v>
+        <v>4.257333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="C27" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="D27" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="E27" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>4.289999999999999</v>
+        <v>4.258999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>4.289999999999999</v>
+        <v>4.259666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C29" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D29" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E29" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>4.289999999999999</v>
+        <v>4.259833333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C30" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="D30" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="E30" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4.263999999999999</v>
+        <v>4.260333333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C31" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D31" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E31" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>4.257999999999999</v>
+        <v>4.260333333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="C32" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="D32" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="E32" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="F32" t="n">
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>4.267999999999999</v>
+        <v>4.260666666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C33" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="E33" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="F33" t="n">
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>4.293999999999999</v>
+        <v>4.261499999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.26</v>
+        <v>4.38</v>
       </c>
       <c r="C34" t="n">
-        <v>4.26</v>
+        <v>4.38</v>
       </c>
       <c r="D34" t="n">
-        <v>4.26</v>
+        <v>4.38</v>
       </c>
       <c r="E34" t="n">
-        <v>4.26</v>
+        <v>4.38</v>
       </c>
       <c r="F34" t="n">
-        <v>21500</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4.292</v>
+        <v>4.263999999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,28 +1588,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="C35" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D35" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E35" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>21500</v>
       </c>
       <c r="G35" t="n">
-        <v>4.308</v>
+        <v>4.264666666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="C36" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="D36" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="E36" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="F36" t="n">
-        <v>197.0046</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>4.308</v>
+        <v>4.265666666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>4.27</v>
       </c>
       <c r="C37" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="D37" t="n">
         <v>4.27</v>
       </c>
       <c r="E37" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F37" t="n">
-        <v>13173.3411</v>
+        <v>197.0046</v>
       </c>
       <c r="G37" t="n">
-        <v>4.298</v>
+        <v>4.265999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="C38" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="D38" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E38" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>13173.3411</v>
       </c>
       <c r="G38" t="n">
-        <v>4.284</v>
+        <v>4.265666666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="C39" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="D39" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="E39" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>4.295999999999999</v>
+        <v>4.266666666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="C40" t="n">
-        <v>4.27</v>
+        <v>4.32</v>
       </c>
       <c r="D40" t="n">
-        <v>4.27</v>
+        <v>4.32</v>
       </c>
       <c r="E40" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="F40" t="n">
-        <v>64981.8429</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>4.283999999999999</v>
+        <v>4.267833333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.36</v>
+        <v>4.26</v>
       </c>
       <c r="C41" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="D41" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="E41" t="n">
-        <v>4.36</v>
+        <v>4.26</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>64981.8429</v>
       </c>
       <c r="G41" t="n">
-        <v>4.301999999999999</v>
+        <v>4.268166666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="C42" t="n">
-        <v>4.3</v>
+        <v>4.36</v>
       </c>
       <c r="D42" t="n">
-        <v>4.3</v>
+        <v>4.36</v>
       </c>
       <c r="E42" t="n">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="F42" t="n">
-        <v>36420.6976</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>4.311999999999999</v>
+        <v>4.269999999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="C43" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="E43" t="n">
-        <v>4.21</v>
+        <v>4.29</v>
       </c>
       <c r="F43" t="n">
-        <v>79704.6819</v>
+        <v>36420.6976</v>
       </c>
       <c r="G43" t="n">
-        <v>4.292</v>
+        <v>4.270833333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.23</v>
+        <v>4.25</v>
       </c>
       <c r="C44" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="D44" t="n">
-        <v>4.23</v>
+        <v>4.25</v>
       </c>
       <c r="E44" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="F44" t="n">
-        <v>56589.866</v>
+        <v>79704.6819</v>
       </c>
       <c r="G44" t="n">
-        <v>4.273999999999999</v>
+        <v>4.270833333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.28</v>
+        <v>4.23</v>
       </c>
       <c r="C45" t="n">
-        <v>4.28</v>
+        <v>4.23</v>
       </c>
       <c r="D45" t="n">
-        <v>4.28</v>
+        <v>4.23</v>
       </c>
       <c r="E45" t="n">
-        <v>4.28</v>
+        <v>4.23</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>56589.866</v>
       </c>
       <c r="G45" t="n">
-        <v>4.276</v>
+        <v>4.270166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="C46" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="D46" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="E46" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="F46" t="n">
-        <v>120243.4504</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>4.246</v>
+        <v>4.270666666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="C47" t="n">
         <v>4.21</v>
       </c>
       <c r="D47" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="E47" t="n">
         <v>4.21</v>
       </c>
       <c r="F47" t="n">
-        <v>8690</v>
+        <v>120243.4504</v>
       </c>
       <c r="G47" t="n">
-        <v>4.228</v>
+        <v>4.270833333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="C48" t="n">
         <v>4.21</v>
@@ -2052,13 +2052,13 @@
         <v>4.21</v>
       </c>
       <c r="E48" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="F48" t="n">
-        <v>93328.9198</v>
+        <v>8690</v>
       </c>
       <c r="G48" t="n">
-        <v>4.228</v>
+        <v>4.270166666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C49" t="n">
         <v>4.21</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.19</v>
       </c>
       <c r="D49" t="n">
         <v>4.21</v>
       </c>
       <c r="E49" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="F49" t="n">
-        <v>284999.9999</v>
+        <v>93328.9198</v>
       </c>
       <c r="G49" t="n">
-        <v>4.220000000000001</v>
+        <v>4.26983333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="C50" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="D50" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="E50" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="F50" t="n">
-        <v>54920</v>
+        <v>284999.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>4.204</v>
+        <v>4.269166666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,31 +2148,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="C51" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="F51" t="n">
-        <v>488934.9238</v>
+        <v>54920</v>
       </c>
       <c r="G51" t="n">
-        <v>4.212</v>
+        <v>4.268166666666663</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.19</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2183,32 +2187,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.27</v>
+        <v>4.21</v>
       </c>
       <c r="C52" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D52" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E52" t="n">
-        <v>4.27</v>
+        <v>4.21</v>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>488934.9238</v>
       </c>
       <c r="G52" t="n">
-        <v>4.223999999999999</v>
+        <v>4.268999999999997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2230,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="C53" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="D53" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E53" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F53" t="n">
-        <v>242103.2594</v>
+        <v>60000</v>
       </c>
       <c r="G53" t="n">
-        <v>4.231999999999999</v>
+        <v>4.270666666666663</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2254,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="C54" t="n">
         <v>4.25</v>
       </c>
       <c r="D54" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="E54" t="n">
         <v>4.25</v>
       </c>
       <c r="F54" t="n">
-        <v>4937.0071</v>
+        <v>242103.2594</v>
       </c>
       <c r="G54" t="n">
-        <v>4.243999999999999</v>
+        <v>4.270999999999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2309,19 @@
         <v>4.25</v>
       </c>
       <c r="C55" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="D55" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="E55" t="n">
         <v>4.25</v>
       </c>
       <c r="F55" t="n">
-        <v>189893.2703640909</v>
+        <v>4937.0071</v>
       </c>
       <c r="G55" t="n">
-        <v>4.284</v>
+        <v>4.271333333333329</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,35 +2341,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="C56" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D56" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E56" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="F56" t="n">
-        <v>55081.967</v>
+        <v>189893.2703640909</v>
       </c>
       <c r="G56" t="n">
-        <v>4.303999999999999</v>
+        <v>4.274999999999995</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2362,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="C57" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="D57" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="E57" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>55081.967</v>
       </c>
       <c r="G57" t="n">
-        <v>4.324</v>
+        <v>4.276499999999996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2386,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2415,10 +2423,10 @@
         <v>4.37</v>
       </c>
       <c r="F58" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="n">
-        <v>4.348</v>
+        <v>4.27833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2427,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2444,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="C59" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="D59" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="E59" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="F59" t="n">
-        <v>35284.5348</v>
+        <v>1650</v>
       </c>
       <c r="G59" t="n">
-        <v>4.356</v>
+        <v>4.280666666666662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="C60" t="n">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="D60" t="n">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="E60" t="n">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="F60" t="n">
-        <v>3000</v>
+        <v>35284.5348</v>
       </c>
       <c r="G60" t="n">
-        <v>4.331999999999999</v>
+        <v>4.282166666666663</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2514,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="C61" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="D61" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="E61" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="F61" t="n">
-        <v>182956.4113</v>
+        <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>4.305999999999999</v>
+        <v>4.282499999999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="C62" t="n">
-        <v>4.28</v>
+        <v>4.22</v>
       </c>
       <c r="D62" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="E62" t="n">
-        <v>4.28</v>
+        <v>4.22</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>182956.4113</v>
       </c>
       <c r="G62" t="n">
-        <v>4.287999999999998</v>
+        <v>4.281666666666664</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2584,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="C63" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="D63" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="E63" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="F63" t="n">
-        <v>6695.8429</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>4.279999999999999</v>
+        <v>4.28183333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2622,19 +2624,19 @@
         <v>4.33</v>
       </c>
       <c r="C64" t="n">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="D64" t="n">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="E64" t="n">
         <v>4.33</v>
       </c>
       <c r="F64" t="n">
-        <v>1123268.279405579</v>
+        <v>6695.8429</v>
       </c>
       <c r="G64" t="n">
-        <v>4.331999999999999</v>
+        <v>4.282999999999997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2654,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="C65" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="D65" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="E65" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="F65" t="n">
-        <v>11204.9077</v>
+        <v>1123268.279405579</v>
       </c>
       <c r="G65" t="n">
-        <v>4.363999999999999</v>
+        <v>4.287999999999997</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,22 +2691,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="C66" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="D66" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="E66" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>11204.9077</v>
       </c>
       <c r="G66" t="n">
-        <v>4.423999999999999</v>
+        <v>4.291166666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2724,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="C67" t="n">
-        <v>4.41</v>
+        <v>4.52</v>
       </c>
       <c r="D67" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="E67" t="n">
-        <v>4.41</v>
+        <v>4.52</v>
       </c>
       <c r="F67" t="n">
-        <v>57923.503</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>4.449999999999999</v>
+        <v>4.295666666666663</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,28 +2761,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="C68" t="n">
-        <v>4.49</v>
+        <v>4.41</v>
       </c>
       <c r="D68" t="n">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="E68" t="n">
-        <v>4.49</v>
+        <v>4.41</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>57923.503</v>
       </c>
       <c r="G68" t="n">
-        <v>4.481999999999999</v>
+        <v>4.298166666666663</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2794,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.39</v>
+        <v>4.49</v>
       </c>
       <c r="C69" t="n">
-        <v>4.39</v>
+        <v>4.49</v>
       </c>
       <c r="D69" t="n">
-        <v>4.39</v>
+        <v>4.49</v>
       </c>
       <c r="E69" t="n">
-        <v>4.39</v>
+        <v>4.49</v>
       </c>
       <c r="F69" t="n">
-        <v>39999</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>4.449999999999999</v>
+        <v>4.301999999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C70" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D70" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E70" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F70" t="n">
-        <v>2500</v>
+        <v>39999</v>
       </c>
       <c r="G70" t="n">
-        <v>4.441999999999999</v>
+        <v>4.303999999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="C71" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="D71" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="E71" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G71" t="n">
-        <v>4.431999999999999</v>
+        <v>4.306166666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2913,10 @@
         <v>4.47</v>
       </c>
       <c r="F72" t="n">
-        <v>2645.1901</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>4.443999999999999</v>
+        <v>4.309499999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.41</v>
+        <v>4.47</v>
       </c>
       <c r="C73" t="n">
-        <v>4.4</v>
+        <v>4.47</v>
       </c>
       <c r="D73" t="n">
-        <v>4.41</v>
+        <v>4.47</v>
       </c>
       <c r="E73" t="n">
-        <v>4.4</v>
+        <v>4.47</v>
       </c>
       <c r="F73" t="n">
-        <v>11837.8684</v>
+        <v>2645.1901</v>
       </c>
       <c r="G73" t="n">
-        <v>4.425999999999999</v>
+        <v>4.312833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C74" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D74" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E74" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="F74" t="n">
-        <v>139289.4038</v>
+        <v>11837.8684</v>
       </c>
       <c r="G74" t="n">
-        <v>4.415999999999999</v>
+        <v>4.314999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C75" t="n">
         <v>4.34</v>
       </c>
-      <c r="C75" t="n">
-        <v>4.31</v>
-      </c>
       <c r="D75" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E75" t="n">
         <v>4.34</v>
       </c>
-      <c r="E75" t="n">
-        <v>4.31</v>
-      </c>
       <c r="F75" t="n">
-        <v>1333338.7475</v>
+        <v>139289.4038</v>
       </c>
       <c r="G75" t="n">
-        <v>4.397999999999999</v>
+        <v>4.316166666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C76" t="n">
         <v>4.31</v>
       </c>
-      <c r="C76" t="n">
-        <v>4.42</v>
-      </c>
       <c r="D76" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="E76" t="n">
         <v>4.31</v>
       </c>
       <c r="F76" t="n">
-        <v>125305.0158538462</v>
+        <v>1333338.7475</v>
       </c>
       <c r="G76" t="n">
-        <v>4.388</v>
+        <v>4.316833333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.37</v>
+        <v>4.31</v>
       </c>
       <c r="C77" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="D77" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="E77" t="n">
-        <v>4.37</v>
+        <v>4.31</v>
       </c>
       <c r="F77" t="n">
-        <v>16137.7916</v>
+        <v>125305.0158538462</v>
       </c>
       <c r="G77" t="n">
-        <v>4.368</v>
+        <v>4.319333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="C78" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="D78" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="E78" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="F78" t="n">
-        <v>73130</v>
+        <v>16137.7916</v>
       </c>
       <c r="G78" t="n">
-        <v>4.37</v>
+        <v>4.320833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C79" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D79" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E79" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="F79" t="n">
-        <v>125669.0107</v>
+        <v>73130</v>
       </c>
       <c r="G79" t="n">
-        <v>4.374000000000001</v>
+        <v>4.322833333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,7 +3181,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="C80" t="n">
         <v>4.36</v>
@@ -3188,13 +3190,13 @@
         <v>4.36</v>
       </c>
       <c r="E80" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="F80" t="n">
-        <v>65611.1186</v>
+        <v>125669.0107</v>
       </c>
       <c r="G80" t="n">
-        <v>4.384</v>
+        <v>4.323833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="C81" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="D81" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="E81" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="F81" t="n">
-        <v>663.492</v>
+        <v>65611.1186</v>
       </c>
       <c r="G81" t="n">
-        <v>4.382000000000001</v>
+        <v>4.322333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3249,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C82" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D82" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E82" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="F82" t="n">
-        <v>3254.3577</v>
+        <v>663.492</v>
       </c>
       <c r="G82" t="n">
-        <v>4.380000000000001</v>
+        <v>4.323833333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3296,10 +3298,10 @@
         <v>4.36</v>
       </c>
       <c r="F83" t="n">
-        <v>6951.0764</v>
+        <v>3254.3577</v>
       </c>
       <c r="G83" t="n">
-        <v>4.37</v>
+        <v>4.322833333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="C84" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="D84" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="E84" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="F84" t="n">
-        <v>137326.2585</v>
+        <v>6951.0764</v>
       </c>
       <c r="G84" t="n">
-        <v>4.372000000000001</v>
+        <v>4.324666666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3366,10 +3368,10 @@
         <v>4.37</v>
       </c>
       <c r="F85" t="n">
-        <v>80681.6933</v>
+        <v>137326.2585</v>
       </c>
       <c r="G85" t="n">
-        <v>4.374000000000001</v>
+        <v>4.326333333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3401,10 +3403,10 @@
         <v>4.37</v>
       </c>
       <c r="F86" t="n">
-        <v>22215.2518</v>
+        <v>80681.6933</v>
       </c>
       <c r="G86" t="n">
-        <v>4.366000000000001</v>
+        <v>4.326166666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3427,19 +3429,19 @@
         <v>4.37</v>
       </c>
       <c r="C87" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="D87" t="n">
         <v>4.37</v>
       </c>
       <c r="E87" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="F87" t="n">
-        <v>180801.1775</v>
+        <v>22215.2518</v>
       </c>
       <c r="G87" t="n">
-        <v>4.366000000000001</v>
+        <v>4.327333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3459,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="C88" t="n">
-        <v>4.3</v>
+        <v>4.36</v>
       </c>
       <c r="D88" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="E88" t="n">
-        <v>4.3</v>
+        <v>4.36</v>
       </c>
       <c r="F88" t="n">
-        <v>125669.0117</v>
+        <v>180801.1775</v>
       </c>
       <c r="G88" t="n">
-        <v>4.354000000000001</v>
+        <v>4.329166666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="C89" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="E89" t="n">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="F89" t="n">
-        <v>24.1928</v>
+        <v>125669.0117</v>
       </c>
       <c r="G89" t="n">
-        <v>4.360000000000001</v>
+        <v>4.330000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,7 +3531,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="C90" t="n">
         <v>4.4</v>
@@ -3538,13 +3540,13 @@
         <v>4.4</v>
       </c>
       <c r="E90" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="F90" t="n">
-        <v>15525.3863</v>
+        <v>24.1928</v>
       </c>
       <c r="G90" t="n">
-        <v>4.366000000000001</v>
+        <v>4.332166666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3567,19 +3569,19 @@
         <v>4.4</v>
       </c>
       <c r="C91" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="n">
         <v>4.4</v>
       </c>
       <c r="E91" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="F91" t="n">
-        <v>56107.9754</v>
+        <v>15525.3863</v>
       </c>
       <c r="G91" t="n">
-        <v>4.370000000000002</v>
+        <v>4.334666666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3602,19 +3604,19 @@
         <v>4.4</v>
       </c>
       <c r="C92" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D92" t="n">
         <v>4.4</v>
       </c>
       <c r="E92" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>56107.9754</v>
       </c>
       <c r="G92" t="n">
-        <v>4.378000000000002</v>
+        <v>4.336666666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3646,10 +3648,10 @@
         <v>4.4</v>
       </c>
       <c r="F93" t="n">
-        <v>257.9546</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>4.398000000000001</v>
+        <v>4.338333333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3669,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="C94" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="D94" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="E94" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>257.9546</v>
       </c>
       <c r="G94" t="n">
-        <v>4.404000000000001</v>
+        <v>4.338666666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="C95" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="D95" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="E95" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="F95" t="n">
-        <v>6188.3101</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>4.406000000000001</v>
+        <v>4.341500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3742,19 +3744,19 @@
         <v>4.41</v>
       </c>
       <c r="C96" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="D96" t="n">
         <v>4.41</v>
       </c>
       <c r="E96" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="F96" t="n">
-        <v>72214.05319999999</v>
+        <v>6188.3101</v>
       </c>
       <c r="G96" t="n">
-        <v>4.407999999999999</v>
+        <v>4.342833333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C97" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E97" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="F97" t="n">
-        <v>205308.2753</v>
+        <v>72214.05319999999</v>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>4.345000000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="C98" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="D98" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="E98" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="F98" t="n">
-        <v>56697.217</v>
+        <v>205308.2753</v>
       </c>
       <c r="G98" t="n">
-        <v>4.394</v>
+        <v>4.346833333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3846,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C99" t="n">
         <v>4.37</v>
       </c>
-      <c r="C99" t="n">
-        <v>4.36</v>
-      </c>
       <c r="D99" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E99" t="n">
         <v>4.37</v>
       </c>
-      <c r="E99" t="n">
-        <v>4.36</v>
-      </c>
       <c r="F99" t="n">
-        <v>182127.3935</v>
+        <v>56697.217</v>
       </c>
       <c r="G99" t="n">
-        <v>4.38</v>
+        <v>4.347833333333336</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="C100" t="n">
         <v>4.36</v>
       </c>
       <c r="D100" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="E100" t="n">
         <v>4.36</v>
       </c>
       <c r="F100" t="n">
-        <v>23741.4032</v>
+        <v>182127.3935</v>
       </c>
       <c r="G100" t="n">
-        <v>4.369999999999999</v>
+        <v>4.348500000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3917,19 +3919,19 @@
         <v>4.36</v>
       </c>
       <c r="C101" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="D101" t="n">
         <v>4.36</v>
       </c>
       <c r="E101" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="F101" t="n">
-        <v>25617.3247</v>
+        <v>23741.4032</v>
       </c>
       <c r="G101" t="n">
-        <v>4.358</v>
+        <v>4.350000000000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="C102" t="n">
         <v>4.34</v>
       </c>
       <c r="D102" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="E102" t="n">
         <v>4.34</v>
       </c>
       <c r="F102" t="n">
-        <v>768.6635</v>
+        <v>25617.3247</v>
       </c>
       <c r="G102" t="n">
-        <v>4.354</v>
+        <v>4.349666666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="C103" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="D103" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="E103" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="F103" t="n">
-        <v>21427.5274</v>
+        <v>768.6635</v>
       </c>
       <c r="G103" t="n">
-        <v>4.343999999999999</v>
+        <v>4.350333333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="C104" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="D104" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="E104" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="F104" t="n">
-        <v>9035.552600000001</v>
+        <v>21427.5274</v>
       </c>
       <c r="G104" t="n">
-        <v>4.32</v>
+        <v>4.352166666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="C105" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="D105" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="E105" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>9035.552600000001</v>
       </c>
       <c r="G105" t="n">
-        <v>4.314</v>
+        <v>4.352333333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="C106" t="n">
-        <v>4.23</v>
+        <v>4.33</v>
       </c>
       <c r="D106" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="E106" t="n">
-        <v>4.23</v>
+        <v>4.33</v>
       </c>
       <c r="F106" t="n">
-        <v>17424.5863</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4.292</v>
+        <v>4.353166666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4124,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="C107" t="n">
-        <v>4.33</v>
+        <v>4.23</v>
       </c>
       <c r="D107" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="E107" t="n">
-        <v>4.33</v>
+        <v>4.23</v>
       </c>
       <c r="F107" t="n">
-        <v>11.9815</v>
+        <v>17424.5863</v>
       </c>
       <c r="G107" t="n">
-        <v>4.29</v>
+        <v>4.353500000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="C108" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="D108" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="E108" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>11.9815</v>
       </c>
       <c r="G108" t="n">
-        <v>4.286</v>
+        <v>4.355500000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4206,10 +4208,10 @@
         <v>4.3</v>
       </c>
       <c r="F109" t="n">
-        <v>34006.046</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>4.298</v>
+        <v>4.357000000000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4229,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="C110" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="D110" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="E110" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="F110" t="n">
-        <v>14500</v>
+        <v>34006.046</v>
       </c>
       <c r="G110" t="n">
-        <v>4.296000000000001</v>
+        <v>4.358833333333337</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4264,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="C111" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="D111" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="E111" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="F111" t="n">
-        <v>764491.3898</v>
+        <v>14500</v>
       </c>
       <c r="G111" t="n">
-        <v>4.296000000000001</v>
+        <v>4.360833333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4299,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C112" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="D112" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="E112" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="F112" t="n">
-        <v>167.645</v>
+        <v>764491.3898</v>
       </c>
       <c r="G112" t="n">
-        <v>4.292</v>
+        <v>4.360500000000004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4337,35 +4339,29 @@
         <v>4.31</v>
       </c>
       <c r="C113" t="n">
-        <v>4.45</v>
+        <v>4.31</v>
       </c>
       <c r="D113" t="n">
-        <v>4.45</v>
+        <v>4.31</v>
       </c>
       <c r="E113" t="n">
         <v>4.31</v>
       </c>
       <c r="F113" t="n">
-        <v>1133598.044827416</v>
+        <v>167.645</v>
       </c>
       <c r="G113" t="n">
-        <v>4.322</v>
+        <v>4.361166666666671</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.31</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4375,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="C114" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="D114" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="E114" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>1133598.044827416</v>
       </c>
       <c r="G114" t="n">
-        <v>4.342</v>
+        <v>4.364500000000004</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4414,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="C115" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D115" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="E115" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="F115" t="n">
-        <v>31108.8278</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>4.356</v>
+        <v>4.367000000000004</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4439,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4453,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.37</v>
+        <v>4.31</v>
       </c>
       <c r="C116" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="D116" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="E116" t="n">
-        <v>4.37</v>
+        <v>4.31</v>
       </c>
       <c r="F116" t="n">
-        <v>1301</v>
+        <v>31108.8278</v>
       </c>
       <c r="G116" t="n">
-        <v>4.383999999999999</v>
+        <v>4.366833333333337</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4504,10 +4488,10 @@
         <v>4.37</v>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>1301</v>
       </c>
       <c r="G117" t="n">
-        <v>4.396</v>
+        <v>4.36716666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4517,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4531,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="C118" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="D118" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="E118" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="F118" t="n">
-        <v>38048.8547</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>4.368</v>
+        <v>4.36716666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4556,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4570,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="C119" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="D119" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="E119" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="F119" t="n">
-        <v>8065469.0929</v>
+        <v>38048.8547</v>
       </c>
       <c r="G119" t="n">
-        <v>4.345999999999999</v>
+        <v>4.36616666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4595,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4612,19 +4584,19 @@
         <v>4.3</v>
       </c>
       <c r="C120" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="D120" t="n">
         <v>4.3</v>
       </c>
       <c r="E120" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F120" t="n">
-        <v>8044925.4302</v>
+        <v>8065469.0929</v>
       </c>
       <c r="G120" t="n">
-        <v>4.327999999999999</v>
+        <v>4.36616666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4634,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4651,19 +4619,19 @@
         <v>4.3</v>
       </c>
       <c r="C121" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="D121" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="E121" t="n">
         <v>4.3</v>
       </c>
       <c r="F121" t="n">
-        <v>16045490.8876</v>
+        <v>8044925.4302</v>
       </c>
       <c r="G121" t="n">
-        <v>4.315999999999999</v>
+        <v>4.366500000000004</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4673,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4699,10 +4663,10 @@
         <v>4.3</v>
       </c>
       <c r="F122" t="n">
-        <v>8545490.887</v>
+        <v>16045490.8876</v>
       </c>
       <c r="G122" t="n">
-        <v>4.303999999999998</v>
+        <v>4.368000000000004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4712,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4726,7 +4686,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C123" t="n">
         <v>4.31</v>
@@ -4735,13 +4695,13 @@
         <v>4.31</v>
       </c>
       <c r="E123" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F123" t="n">
-        <v>16000000</v>
+        <v>8545490.887</v>
       </c>
       <c r="G123" t="n">
-        <v>4.303999999999998</v>
+        <v>4.368500000000004</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4751,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4774,13 +4730,13 @@
         <v>4.31</v>
       </c>
       <c r="E124" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="F124" t="n">
-        <v>24005044.8944</v>
+        <v>16000000</v>
       </c>
       <c r="G124" t="n">
-        <v>4.307999999999998</v>
+        <v>4.368166666666671</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4790,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4804,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="C125" t="n">
         <v>4.31</v>
       </c>
       <c r="D125" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="E125" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F125" t="n">
-        <v>7500000</v>
+        <v>24005044.8944</v>
       </c>
       <c r="G125" t="n">
-        <v>4.309999999999998</v>
+        <v>4.364166666666671</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4829,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="C126" t="n">
         <v>4.31</v>
       </c>
       <c r="D126" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="E126" t="n">
         <v>4.31</v>
       </c>
       <c r="F126" t="n">
-        <v>16074040</v>
+        <v>7500000</v>
       </c>
       <c r="G126" t="n">
-        <v>4.309999999999998</v>
+        <v>4.362000000000005</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4868,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4894,10 +4838,10 @@
         <v>4.31</v>
       </c>
       <c r="F127" t="n">
-        <v>8005555</v>
+        <v>16074040</v>
       </c>
       <c r="G127" t="n">
-        <v>4.309999999999998</v>
+        <v>4.358500000000005</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4907,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4921,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="C128" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="D128" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="E128" t="n">
-        <v>4.34</v>
+        <v>4.31</v>
       </c>
       <c r="F128" t="n">
-        <v>17509250</v>
+        <v>8005555</v>
       </c>
       <c r="G128" t="n">
-        <v>4.317999999999999</v>
+        <v>4.356833333333338</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4946,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4960,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="C129" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="D129" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="E129" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="F129" t="n">
-        <v>24509250</v>
+        <v>17509250</v>
       </c>
       <c r="G129" t="n">
-        <v>4.327999999999999</v>
+        <v>4.354500000000004</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4985,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5011,10 +4943,10 @@
         <v>4.36</v>
       </c>
       <c r="F130" t="n">
-        <v>25609250</v>
+        <v>24509250</v>
       </c>
       <c r="G130" t="n">
-        <v>4.337999999999999</v>
+        <v>4.354000000000005</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5024,11 +4956,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5041,19 +4969,19 @@
         <v>4.36</v>
       </c>
       <c r="C131" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="D131" t="n">
         <v>4.36</v>
       </c>
       <c r="E131" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="F131" t="n">
-        <v>16759077.555</v>
+        <v>25609250</v>
       </c>
       <c r="G131" t="n">
-        <v>4.345999999999998</v>
+        <v>4.353333333333339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5063,11 +4991,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5077,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="C132" t="n">
         <v>4.35</v>
       </c>
       <c r="D132" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E132" t="n">
         <v>4.35</v>
       </c>
-      <c r="E132" t="n">
-        <v>4.34</v>
-      </c>
       <c r="F132" t="n">
-        <v>17837955.5831</v>
+        <v>16759077.555</v>
       </c>
       <c r="G132" t="n">
-        <v>4.353999999999998</v>
+        <v>4.351333333333339</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5102,11 +5026,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5116,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="C133" t="n">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="D133" t="n">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="E133" t="n">
         <v>4.34</v>
       </c>
       <c r="F133" t="n">
-        <v>9000000</v>
+        <v>17837955.5831</v>
       </c>
       <c r="G133" t="n">
-        <v>4.351999999999999</v>
+        <v>4.349333333333338</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5141,11 +5061,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5155,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.33</v>
+        <v>4.34</v>
       </c>
       <c r="C134" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D134" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="E134" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="F134" t="n">
-        <v>32139572.869</v>
+        <v>9000000</v>
       </c>
       <c r="G134" t="n">
-        <v>4.351999999999999</v>
+        <v>4.348333333333339</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5180,11 +5096,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5194,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="C135" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="D135" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="E135" t="n">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="F135" t="n">
-        <v>17281844.4268</v>
+        <v>32139572.869</v>
       </c>
       <c r="G135" t="n">
-        <v>4.353999999999998</v>
+        <v>4.348666666666673</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5219,11 +5131,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5233,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="C136" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="D136" t="n">
         <v>4.38</v>
       </c>
       <c r="E136" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="F136" t="n">
-        <v>8829262.557</v>
+        <v>17281844.4268</v>
       </c>
       <c r="G136" t="n">
-        <v>4.359999999999998</v>
+        <v>4.349666666666673</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5258,11 +5166,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5272,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="C137" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="D137" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="E137" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="F137" t="n">
-        <v>247914.9404438914</v>
+        <v>8829262.557</v>
       </c>
       <c r="G137" t="n">
-        <v>4.377999999999998</v>
+        <v>4.349000000000006</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5297,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5311,7 +5211,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="C138" t="n">
         <v>4.44</v>
@@ -5320,13 +5220,13 @@
         <v>4.44</v>
       </c>
       <c r="E138" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="F138" t="n">
-        <v>11895.6488</v>
+        <v>247914.9404438914</v>
       </c>
       <c r="G138" t="n">
-        <v>4.397999999999999</v>
+        <v>4.350166666666672</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5336,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5350,7 +5246,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="C139" t="n">
         <v>4.44</v>
@@ -5359,13 +5255,13 @@
         <v>4.44</v>
       </c>
       <c r="E139" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>11895.6488</v>
       </c>
       <c r="G139" t="n">
-        <v>4.414</v>
+        <v>4.350666666666672</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5375,11 +5271,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5389,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="C140" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="D140" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="E140" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>4.425999999999999</v>
+        <v>4.352000000000005</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5414,11 +5306,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5440,10 +5328,10 @@
         <v>4.43</v>
       </c>
       <c r="F141" t="n">
-        <v>79.45820000000001</v>
+        <v>500</v>
       </c>
       <c r="G141" t="n">
-        <v>4.435999999999999</v>
+        <v>4.353166666666671</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5453,11 +5341,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5467,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="C142" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="D142" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="E142" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>79.45820000000001</v>
       </c>
       <c r="G142" t="n">
-        <v>4.435999999999999</v>
+        <v>4.353500000000005</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5492,11 +5376,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5509,19 +5389,19 @@
         <v>4.44</v>
       </c>
       <c r="C143" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="D143" t="n">
         <v>4.44</v>
       </c>
       <c r="E143" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F143" t="n">
-        <v>58588.0694</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>4.433999999999999</v>
+        <v>4.354833333333337</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5531,11 +5411,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5548,19 +5424,19 @@
         <v>4.44</v>
       </c>
       <c r="C144" t="n">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="D144" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="E144" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F144" t="n">
-        <v>107488.7195</v>
+        <v>58588.0694</v>
       </c>
       <c r="G144" t="n">
-        <v>4.435999999999998</v>
+        <v>4.356000000000004</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5570,11 +5446,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5587,19 +5459,19 @@
         <v>4.44</v>
       </c>
       <c r="C145" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="D145" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E145" t="n">
         <v>4.44</v>
       </c>
-      <c r="E145" t="n">
-        <v>4.42</v>
-      </c>
       <c r="F145" t="n">
-        <v>227947.3474</v>
+        <v>107488.7195</v>
       </c>
       <c r="G145" t="n">
-        <v>4.433999999999999</v>
+        <v>4.357333333333337</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5609,11 +5481,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5623,22 +5491,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="C146" t="n">
         <v>4.42</v>
       </c>
       <c r="D146" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="E146" t="n">
         <v>4.42</v>
       </c>
       <c r="F146" t="n">
-        <v>185220.8717</v>
+        <v>227947.3474</v>
       </c>
       <c r="G146" t="n">
-        <v>4.431999999999999</v>
+        <v>4.358166666666671</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5648,11 +5516,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5662,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="C147" t="n">
         <v>4.42</v>
       </c>
       <c r="D147" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="E147" t="n">
         <v>4.42</v>
       </c>
       <c r="F147" t="n">
-        <v>112350</v>
+        <v>185220.8717</v>
       </c>
       <c r="G147" t="n">
-        <v>4.427999999999999</v>
+        <v>4.359000000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5687,11 +5551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5701,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="C148" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="D148" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="E148" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F148" t="n">
-        <v>245428.1973</v>
+        <v>112350</v>
       </c>
       <c r="G148" t="n">
-        <v>4.435999999999999</v>
+        <v>4.360000000000004</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5726,11 +5586,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +5596,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C149" t="n">
         <v>4.47</v>
@@ -5749,13 +5605,13 @@
         <v>4.47</v>
       </c>
       <c r="E149" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F149" t="n">
-        <v>48160.11787258427</v>
+        <v>245428.1973</v>
       </c>
       <c r="G149" t="n">
-        <v>4.44</v>
+        <v>4.362833333333338</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5765,11 +5621,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5791,10 +5643,10 @@
         <v>4.47</v>
       </c>
       <c r="F150" t="n">
-        <v>35000</v>
+        <v>48160.11787258427</v>
       </c>
       <c r="G150" t="n">
-        <v>4.449999999999998</v>
+        <v>4.364000000000005</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5804,11 +5656,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5821,19 +5669,19 @@
         <v>4.47</v>
       </c>
       <c r="C151" t="n">
-        <v>4.43</v>
+        <v>4.47</v>
       </c>
       <c r="D151" t="n">
         <v>4.47</v>
       </c>
       <c r="E151" t="n">
-        <v>4.43</v>
+        <v>4.47</v>
       </c>
       <c r="F151" t="n">
-        <v>609.2333274157303</v>
+        <v>35000</v>
       </c>
       <c r="G151" t="n">
-        <v>4.451999999999998</v>
+        <v>4.365166666666672</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5843,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5857,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C152" t="n">
         <v>4.43</v>
       </c>
-      <c r="C152" t="n">
-        <v>4.41</v>
-      </c>
       <c r="D152" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E152" t="n">
         <v>4.43</v>
       </c>
-      <c r="E152" t="n">
-        <v>4.41</v>
-      </c>
       <c r="F152" t="n">
-        <v>144312.5243</v>
+        <v>609.2333274157303</v>
       </c>
       <c r="G152" t="n">
-        <v>4.449999999999998</v>
+        <v>4.36583333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5882,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5896,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="C153" t="n">
         <v>4.41</v>
       </c>
       <c r="D153" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="E153" t="n">
         <v>4.41</v>
       </c>
       <c r="F153" t="n">
-        <v>644129.2438000001</v>
+        <v>144312.5243</v>
       </c>
       <c r="G153" t="n">
-        <v>4.437999999999999</v>
+        <v>4.366000000000008</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5921,11 +5761,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5935,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="C154" t="n">
         <v>4.41</v>
       </c>
       <c r="D154" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="E154" t="n">
         <v>4.41</v>
       </c>
       <c r="F154" t="n">
-        <v>379868.6775</v>
+        <v>644129.2438000001</v>
       </c>
       <c r="G154" t="n">
-        <v>4.425999999999999</v>
+        <v>4.366166666666675</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5960,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5986,10 +5818,10 @@
         <v>4.41</v>
       </c>
       <c r="F155" t="n">
-        <v>113082.6901</v>
+        <v>379868.6775</v>
       </c>
       <c r="G155" t="n">
-        <v>4.414</v>
+        <v>4.365833333333342</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5999,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6025,10 +5853,10 @@
         <v>4.41</v>
       </c>
       <c r="F156" t="n">
-        <v>28921.6318</v>
+        <v>113082.6901</v>
       </c>
       <c r="G156" t="n">
-        <v>4.409999999999999</v>
+        <v>4.365833333333342</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6038,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6052,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="C157" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="D157" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="E157" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="F157" t="n">
-        <v>625.7954</v>
+        <v>28921.6318</v>
       </c>
       <c r="G157" t="n">
-        <v>4.407999999999999</v>
+        <v>4.366000000000009</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6077,11 +5901,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6091,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="C158" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="D158" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="E158" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="F158" t="n">
-        <v>40</v>
+        <v>625.7954</v>
       </c>
       <c r="G158" t="n">
-        <v>4.407999999999999</v>
+        <v>4.366666666666675</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6116,11 +5936,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6130,22 +5946,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="C159" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="D159" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="E159" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G159" t="n">
-        <v>4.411999999999999</v>
+        <v>4.367333333333343</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6155,11 +5971,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6169,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="C160" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="D160" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="E160" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="F160" t="n">
-        <v>5716.5702</v>
+        <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>4.411999999999999</v>
+        <v>4.368500000000009</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6194,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6220,10 +6028,10 @@
         <v>4.41</v>
       </c>
       <c r="F161" t="n">
-        <v>8522.3266</v>
+        <v>5716.5702</v>
       </c>
       <c r="G161" t="n">
-        <v>4.411999999999999</v>
+        <v>4.369333333333342</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6233,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6259,10 +6063,10 @@
         <v>4.41</v>
       </c>
       <c r="F162" t="n">
-        <v>498</v>
+        <v>8522.3266</v>
       </c>
       <c r="G162" t="n">
-        <v>4.413999999999999</v>
+        <v>4.37050000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6272,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6286,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="C163" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="D163" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="E163" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="F163" t="n">
-        <v>290</v>
+        <v>498</v>
       </c>
       <c r="G163" t="n">
-        <v>4.417999999999998</v>
+        <v>4.371666666666678</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6311,11 +6111,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6337,10 +6133,10 @@
         <v>4.43</v>
       </c>
       <c r="F164" t="n">
-        <v>98801.1963</v>
+        <v>290</v>
       </c>
       <c r="G164" t="n">
-        <v>4.417999999999998</v>
+        <v>4.373500000000011</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6350,11 +6146,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6364,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="C165" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="D165" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="E165" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="F165" t="n">
-        <v>2775.4783</v>
+        <v>98801.1963</v>
       </c>
       <c r="G165" t="n">
-        <v>4.415999999999999</v>
+        <v>4.376666666666678</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6389,11 +6181,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6403,22 +6191,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="C166" t="n">
         <v>4.4</v>
       </c>
       <c r="D166" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="E166" t="n">
         <v>4.4</v>
       </c>
       <c r="F166" t="n">
-        <v>317954.7726</v>
+        <v>2775.4783</v>
       </c>
       <c r="G166" t="n">
-        <v>4.414</v>
+        <v>4.377833333333344</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6428,11 +6216,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6442,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="C167" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="D167" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="E167" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="F167" t="n">
-        <v>11.9516</v>
+        <v>317954.7726</v>
       </c>
       <c r="G167" t="n">
-        <v>4.407999999999999</v>
+        <v>4.380666666666676</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6467,11 +6251,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6481,22 +6261,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="C168" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="D168" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="E168" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="F168" t="n">
-        <v>11.9909</v>
+        <v>11.9516</v>
       </c>
       <c r="G168" t="n">
-        <v>4.405999999999999</v>
+        <v>4.381500000000011</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6506,11 +6286,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6520,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="C169" t="n">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="D169" t="n">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="E169" t="n">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="F169" t="n">
-        <v>76763.25380000001</v>
+        <v>11.9909</v>
       </c>
       <c r="G169" t="n">
-        <v>4.395999999999999</v>
+        <v>4.38350000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6545,11 +6321,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6559,22 +6331,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.35</v>
+        <v>4.38</v>
       </c>
       <c r="C170" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="D170" t="n">
-        <v>4.35</v>
+        <v>4.38</v>
       </c>
       <c r="E170" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="F170" t="n">
-        <v>2540.0992</v>
+        <v>76763.25380000001</v>
       </c>
       <c r="G170" t="n">
-        <v>4.377999999999998</v>
+        <v>4.384833333333344</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6584,11 +6356,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6598,22 +6366,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="C171" t="n">
-        <v>4.42</v>
+        <v>4.31</v>
       </c>
       <c r="D171" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="E171" t="n">
-        <v>4.42</v>
+        <v>4.31</v>
       </c>
       <c r="F171" t="n">
-        <v>10432.2171</v>
+        <v>2540.0992</v>
       </c>
       <c r="G171" t="n">
-        <v>4.382</v>
+        <v>4.384666666666677</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6623,11 +6391,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6649,10 +6413,10 @@
         <v>4.42</v>
       </c>
       <c r="F172" t="n">
-        <v>276.923</v>
+        <v>10432.2171</v>
       </c>
       <c r="G172" t="n">
-        <v>4.39</v>
+        <v>4.387833333333344</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6662,11 +6426,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6676,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="C173" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="D173" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="E173" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="F173" t="n">
-        <v>276.2307</v>
+        <v>276.923</v>
       </c>
       <c r="G173" t="n">
-        <v>4.375999999999999</v>
+        <v>4.389666666666677</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6701,11 +6461,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6715,22 +6471,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="C174" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="D174" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="E174" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>276.2307</v>
       </c>
       <c r="G174" t="n">
-        <v>4.379999999999999</v>
+        <v>4.388000000000011</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6740,11 +6496,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6757,19 +6509,19 @@
         <v>4.4</v>
       </c>
       <c r="C175" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="D175" t="n">
         <v>4.4</v>
       </c>
       <c r="E175" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="F175" t="n">
-        <v>488.4794</v>
+        <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>4.383999999999999</v>
+        <v>4.388000000000011</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6779,11 +6531,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6793,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="C176" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="D176" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E176" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="F176" t="n">
-        <v>5833.777</v>
+        <v>488.4794</v>
       </c>
       <c r="G176" t="n">
-        <v>4.372</v>
+        <v>4.387000000000011</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6818,11 +6566,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6832,22 +6576,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="C177" t="n">
-        <v>4.31</v>
+        <v>4.36</v>
       </c>
       <c r="D177" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="E177" t="n">
-        <v>4.31</v>
+        <v>4.36</v>
       </c>
       <c r="F177" t="n">
-        <v>950.306</v>
+        <v>5833.777</v>
       </c>
       <c r="G177" t="n">
-        <v>4.35</v>
+        <v>4.386833333333344</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6857,11 +6601,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6871,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.31</v>
+        <v>4.34</v>
       </c>
       <c r="C178" t="n">
         <v>4.31</v>
       </c>
       <c r="D178" t="n">
-        <v>4.31</v>
+        <v>4.34</v>
       </c>
       <c r="E178" t="n">
         <v>4.31</v>
       </c>
       <c r="F178" t="n">
-        <v>84588.80710000001</v>
+        <v>950.306</v>
       </c>
       <c r="G178" t="n">
-        <v>4.342000000000001</v>
+        <v>4.385833333333344</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6896,11 +6636,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6922,10 +6658,10 @@
         <v>4.31</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0003</v>
+        <v>84588.80710000001</v>
       </c>
       <c r="G179" t="n">
-        <v>4.324</v>
+        <v>4.385833333333344</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6935,11 +6671,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6961,10 +6693,10 @@
         <v>4.31</v>
       </c>
       <c r="F180" t="n">
-        <v>11.9609</v>
+        <v>0.0003</v>
       </c>
       <c r="G180" t="n">
-        <v>4.319999999999999</v>
+        <v>4.386166666666678</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6974,11 +6706,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6988,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="C181" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="D181" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="E181" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="F181" t="n">
-        <v>11.6438</v>
+        <v>11.9609</v>
       </c>
       <c r="G181" t="n">
-        <v>4.323999999999999</v>
+        <v>4.386333333333344</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7013,11 +6741,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7030,19 +6754,19 @@
         <v>4.38</v>
       </c>
       <c r="C182" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="D182" t="n">
         <v>4.38</v>
       </c>
       <c r="E182" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="F182" t="n">
-        <v>460.6111</v>
+        <v>11.6438</v>
       </c>
       <c r="G182" t="n">
-        <v>4.323999999999999</v>
+        <v>4.387500000000011</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7052,11 +6776,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7066,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
       <c r="C183" t="n">
         <v>4.31</v>
       </c>
       <c r="D183" t="n">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
       <c r="E183" t="n">
         <v>4.31</v>
       </c>
       <c r="F183" t="n">
-        <v>81082.74800000001</v>
+        <v>460.6111</v>
       </c>
       <c r="G183" t="n">
-        <v>4.323999999999999</v>
+        <v>4.387500000000011</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7091,11 +6811,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7105,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="C184" t="n">
         <v>4.31</v>
       </c>
       <c r="D184" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="E184" t="n">
         <v>4.31</v>
       </c>
       <c r="F184" t="n">
-        <v>56318.7</v>
+        <v>81082.74800000001</v>
       </c>
       <c r="G184" t="n">
-        <v>4.323999999999999</v>
+        <v>4.387500000000011</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7130,11 +6846,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7144,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="C185" t="n">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
       <c r="D185" t="n">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
       <c r="E185" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="F185" t="n">
-        <v>117836.0948</v>
+        <v>56318.7</v>
       </c>
       <c r="G185" t="n">
-        <v>4.339999999999999</v>
+        <v>4.387500000000011</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7169,11 +6881,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7183,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C186" t="n">
         <v>4.39</v>
       </c>
-      <c r="C186" t="n">
-        <v>4.43</v>
-      </c>
       <c r="D186" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="E186" t="n">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="F186" t="n">
-        <v>3592.8362</v>
+        <v>117836.0948</v>
       </c>
       <c r="G186" t="n">
-        <v>4.35</v>
+        <v>4.388833333333343</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7208,11 +6916,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7222,7 +6926,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="C187" t="n">
         <v>4.43</v>
@@ -7231,13 +6935,13 @@
         <v>4.43</v>
       </c>
       <c r="E187" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="F187" t="n">
-        <v>70000</v>
+        <v>3592.8362</v>
       </c>
       <c r="G187" t="n">
-        <v>4.374</v>
+        <v>4.390833333333344</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7247,11 +6951,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7273,10 +6973,10 @@
         <v>4.43</v>
       </c>
       <c r="F188" t="n">
-        <v>22530</v>
+        <v>70000</v>
       </c>
       <c r="G188" t="n">
-        <v>4.398</v>
+        <v>4.392833333333344</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7286,11 +6986,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7300,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="C189" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="D189" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="E189" t="n">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>22530</v>
       </c>
       <c r="G189" t="n">
-        <v>4.428</v>
+        <v>4.394166666666677</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7325,11 +7021,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7339,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="C190" t="n">
-        <v>4.43</v>
+        <v>4.46</v>
       </c>
       <c r="D190" t="n">
-        <v>4.43</v>
+        <v>4.46</v>
       </c>
       <c r="E190" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="F190" t="n">
-        <v>96122.83620000001</v>
+        <v>210</v>
       </c>
       <c r="G190" t="n">
-        <v>4.436</v>
+        <v>4.395833333333343</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7364,11 +7056,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7378,22 +7066,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="C191" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="D191" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="E191" t="n">
         <v>4.39</v>
       </c>
       <c r="F191" t="n">
-        <v>2470</v>
+        <v>96122.83620000001</v>
       </c>
       <c r="G191" t="n">
-        <v>4.428</v>
+        <v>4.397000000000009</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7403,11 +7091,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7417,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C192" t="n">
         <v>4.39</v>
       </c>
       <c r="D192" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E192" t="n">
         <v>4.39</v>
       </c>
       <c r="F192" t="n">
-        <v>143722.7163</v>
+        <v>2470</v>
       </c>
       <c r="G192" t="n">
-        <v>4.42</v>
+        <v>4.397666666666676</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7442,11 +7126,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7456,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="C193" t="n">
-        <v>4.36</v>
+        <v>4.39</v>
       </c>
       <c r="D193" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="E193" t="n">
-        <v>4.36</v>
+        <v>4.39</v>
       </c>
       <c r="F193" t="n">
-        <v>149.9255</v>
+        <v>143722.7163</v>
       </c>
       <c r="G193" t="n">
-        <v>4.406000000000001</v>
+        <v>4.398333333333341</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7481,11 +7161,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7498,19 +7174,19 @@
         <v>4.41</v>
       </c>
       <c r="C194" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="D194" t="n">
         <v>4.41</v>
       </c>
       <c r="E194" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="F194" t="n">
-        <v>671</v>
+        <v>149.9255</v>
       </c>
       <c r="G194" t="n">
-        <v>4.396</v>
+        <v>4.398666666666675</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7520,11 +7196,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7546,10 +7218,10 @@
         <v>4.41</v>
       </c>
       <c r="F195" t="n">
-        <v>100</v>
+        <v>671</v>
       </c>
       <c r="G195" t="n">
-        <v>4.392</v>
+        <v>4.399500000000009</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7559,11 +7231,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7576,19 +7244,19 @@
         <v>4.41</v>
       </c>
       <c r="C196" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D196" t="n">
         <v>4.41</v>
       </c>
       <c r="E196" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F196" t="n">
-        <v>24562.0027</v>
+        <v>100</v>
       </c>
       <c r="G196" t="n">
-        <v>4.384</v>
+        <v>4.400166666666676</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7598,11 +7266,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7615,19 +7279,19 @@
         <v>4.41</v>
       </c>
       <c r="C197" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="D197" t="n">
         <v>4.41</v>
       </c>
       <c r="E197" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="F197" t="n">
-        <v>70</v>
+        <v>24562.0027</v>
       </c>
       <c r="G197" t="n">
-        <v>4.388</v>
+        <v>4.399666666666676</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7637,11 +7301,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7654,19 +7314,19 @@
         <v>4.41</v>
       </c>
       <c r="C198" t="n">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="D198" t="n">
         <v>4.41</v>
       </c>
       <c r="E198" t="n">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="F198" t="n">
-        <v>11161.5408</v>
+        <v>70</v>
       </c>
       <c r="G198" t="n">
-        <v>4.392</v>
+        <v>4.399166666666677</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7676,11 +7336,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7693,7 +7349,7 @@
         <v>4.41</v>
       </c>
       <c r="C199" t="n">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="D199" t="n">
         <v>4.41</v>
@@ -7702,10 +7358,10 @@
         <v>4.38</v>
       </c>
       <c r="F199" t="n">
-        <v>363490.1055</v>
+        <v>11161.5408</v>
       </c>
       <c r="G199" t="n">
-        <v>4.392</v>
+        <v>4.398166666666677</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7715,11 +7371,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7732,19 +7384,19 @@
         <v>4.41</v>
       </c>
       <c r="C200" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D200" t="n">
         <v>4.41</v>
       </c>
       <c r="E200" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="F200" t="n">
-        <v>10093.9426</v>
+        <v>363490.1055</v>
       </c>
       <c r="G200" t="n">
-        <v>4.382</v>
+        <v>4.397666666666677</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7754,11 +7406,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7768,22 +7416,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C201" t="n">
         <v>4.36</v>
       </c>
       <c r="D201" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E201" t="n">
         <v>4.36</v>
       </c>
       <c r="F201" t="n">
-        <v>7035.2586</v>
+        <v>10093.9426</v>
       </c>
       <c r="G201" t="n">
-        <v>4.384</v>
+        <v>4.396500000000011</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7793,11 +7441,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7807,22 +7451,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="C202" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="D202" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="E202" t="n">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="F202" t="n">
-        <v>194.1203</v>
+        <v>7035.2586</v>
       </c>
       <c r="G202" t="n">
-        <v>4.372000000000001</v>
+        <v>4.395333333333344</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7832,11 +7476,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7849,19 +7489,19 @@
         <v>4.35</v>
       </c>
       <c r="C203" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="D203" t="n">
-        <v>4.41</v>
+        <v>4.35</v>
       </c>
       <c r="E203" t="n">
         <v>4.35</v>
       </c>
       <c r="F203" t="n">
-        <v>22.9525</v>
+        <v>194.1203</v>
       </c>
       <c r="G203" t="n">
-        <v>4.378000000000001</v>
+        <v>4.393833333333345</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7871,11 +7511,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7885,22 +7521,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.38</v>
+        <v>4.35</v>
       </c>
       <c r="C204" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="D204" t="n">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="E204" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="F204" t="n">
-        <v>66386.4988</v>
+        <v>22.9525</v>
       </c>
       <c r="G204" t="n">
-        <v>4.370000000000001</v>
+        <v>4.393500000000012</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7910,12 +7546,43 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F205" t="n">
+        <v>66386.4988</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4.392166666666679</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>37300</v>
       </c>
       <c r="G2" t="n">
+        <v>4.230666666666662</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.224499999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>189.2271</v>
       </c>
       <c r="G3" t="n">
+        <v>4.231999999999995</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.226499999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>4.233999999999995</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.228499999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>8512861.237600001</v>
       </c>
       <c r="G5" t="n">
+        <v>4.235333333333328</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.230166666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>19279375.9692</v>
       </c>
       <c r="G6" t="n">
+        <v>4.234666666666661</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.231666666666664</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>9286749.232899999</v>
       </c>
       <c r="G7" t="n">
+        <v>4.237999999999995</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.233166666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>238.2629</v>
       </c>
       <c r="G8" t="n">
+        <v>4.243999999999995</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.234666666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,25 @@
         <v>45181.7371</v>
       </c>
       <c r="G9" t="n">
+        <v>4.245999999999995</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.235166666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,29 @@
         <v>109193.2084</v>
       </c>
       <c r="G10" t="n">
+        <v>4.248666666666661</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.236166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,29 @@
         <v>854.0983</v>
       </c>
       <c r="G11" t="n">
+        <v>4.254666666666661</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.236999999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,21 @@
         <v>4000</v>
       </c>
       <c r="G12" t="n">
+        <v>4.255333333333328</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.237499999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +927,25 @@
         <v>18000</v>
       </c>
       <c r="G13" t="n">
+        <v>4.255999999999995</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.237833333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +969,27 @@
         <v>163999.1803</v>
       </c>
       <c r="G14" t="n">
+        <v>4.258666666666661</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.237999999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1013,27 @@
         <v>3100</v>
       </c>
       <c r="G15" t="n">
+        <v>4.263333333333327</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.238333333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1057,25 @@
         <v>122999.3559</v>
       </c>
       <c r="G16" t="n">
+        <v>4.263999999999994</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.238666666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1099,29 @@
         <v>31100.9766</v>
       </c>
       <c r="G17" t="n">
+        <v>4.263999999999995</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.238999999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1145,29 @@
         <v>10.0467</v>
       </c>
       <c r="G18" t="n">
+        <v>4.264666666666661</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.239666666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1191,21 @@
         <v>99</v>
       </c>
       <c r="G19" t="n">
+        <v>4.266666666666662</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.241166666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1229,21 @@
         <v>241187.9302</v>
       </c>
       <c r="G20" t="n">
+        <v>4.269999999999996</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.242666666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1267,21 @@
         <v>389355.7730602326</v>
       </c>
       <c r="G21" t="n">
+        <v>4.28333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.246333333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1305,21 @@
         <v>60000</v>
       </c>
       <c r="G22" t="n">
+        <v>4.287999999999996</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.248333333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1343,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>4.298666666666662</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.252333333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1381,21 @@
         <v>200715.5205</v>
       </c>
       <c r="G24" t="n">
+        <v>4.297999999999996</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.253166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,21 @@
         <v>250</v>
       </c>
       <c r="G25" t="n">
+        <v>4.297999999999996</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.254333333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1457,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>4.305333333333328</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.257333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1495,21 @@
         <v>20</v>
       </c>
       <c r="G27" t="n">
+        <v>4.307333333333329</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.258999999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1533,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>4.305999999999996</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.259666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1571,21 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>4.304666666666662</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.259833333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1609,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>4.304666666666662</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.260333333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1647,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>4.303333333333329</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.260333333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1685,21 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
+        <v>4.303333333333329</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.260666666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1723,21 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
+        <v>4.304666666666662</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.261499999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1761,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>4.310666666666662</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.263999999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1799,21 @@
         <v>21500</v>
       </c>
       <c r="G35" t="n">
+        <v>4.307999999999995</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.264666666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1837,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
+        <v>4.299999999999995</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.265666666666665</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1875,21 @@
         <v>197.0046</v>
       </c>
       <c r="G37" t="n">
+        <v>4.296666666666662</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.265999999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1913,21 @@
         <v>13173.3411</v>
       </c>
       <c r="G38" t="n">
+        <v>4.285333333333329</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.265666666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1951,21 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>4.289333333333329</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.266666666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1989,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
+        <v>4.292666666666663</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.267833333333331</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2027,21 @@
         <v>64981.8429</v>
       </c>
       <c r="G41" t="n">
+        <v>4.285333333333329</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.268166666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
+        <v>4.28933333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.269999999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2103,21 @@
         <v>36420.6976</v>
       </c>
       <c r="G43" t="n">
+        <v>4.292666666666663</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.270833333333331</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2141,21 @@
         <v>79704.6819</v>
       </c>
       <c r="G44" t="n">
+        <v>4.289999999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.270833333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2179,21 @@
         <v>56589.866</v>
       </c>
       <c r="G45" t="n">
+        <v>4.28733333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.270166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2217,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>4.28933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.270666666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2255,21 @@
         <v>120243.4504</v>
       </c>
       <c r="G47" t="n">
+        <v>4.285333333333329</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.270833333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2293,21 @@
         <v>8690</v>
       </c>
       <c r="G48" t="n">
+        <v>4.279333333333329</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.270166666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2331,27 @@
         <v>93328.9198</v>
       </c>
       <c r="G49" t="n">
+        <v>4.267999999999996</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.26983333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.21</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2375,25 @@
         <v>284999.9999</v>
       </c>
       <c r="G50" t="n">
+        <v>4.263333333333329</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.269166666666663</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,22 +2417,25 @@
         <v>54920</v>
       </c>
       <c r="G51" t="n">
+        <v>4.254666666666663</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.268166666666663</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2202,26 +2459,25 @@
         <v>488934.9238</v>
       </c>
       <c r="G52" t="n">
+        <v>4.253333333333329</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.268999999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,24 +2501,25 @@
         <v>60000</v>
       </c>
       <c r="G53" t="n">
+        <v>4.254666666666663</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.270666666666663</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2543,25 @@
         <v>242103.2594</v>
       </c>
       <c r="G54" t="n">
+        <v>4.250666666666662</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.270999999999996</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2585,25 @@
         <v>4937.0071</v>
       </c>
       <c r="G55" t="n">
+        <v>4.245999999999996</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.271333333333329</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2627,25 @@
         <v>189893.2703640909</v>
       </c>
       <c r="G56" t="n">
+        <v>4.254666666666663</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.274999999999995</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2669,25 @@
         <v>55081.967</v>
       </c>
       <c r="G57" t="n">
+        <v>4.253999999999995</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.276499999999996</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2711,25 @@
         <v>3000</v>
       </c>
       <c r="G58" t="n">
+        <v>4.258666666666662</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.27833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2753,25 @@
         <v>1650</v>
       </c>
       <c r="G59" t="n">
+        <v>4.26933333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.280666666666662</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2795,25 @@
         <v>35284.5348</v>
       </c>
       <c r="G60" t="n">
+        <v>4.27333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.282166666666663</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2837,25 @@
         <v>3000</v>
       </c>
       <c r="G61" t="n">
+        <v>4.27333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.282499999999996</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2879,25 @@
         <v>182956.4113</v>
       </c>
       <c r="G62" t="n">
+        <v>4.273999999999997</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.281666666666664</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2921,25 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
+        <v>4.278666666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.28183333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2963,25 @@
         <v>6695.8429</v>
       </c>
       <c r="G64" t="n">
+        <v>4.286666666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.282999999999997</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3005,25 @@
         <v>1123268.279405579</v>
       </c>
       <c r="G65" t="n">
+        <v>4.310666666666664</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.287999999999997</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3047,25 @@
         <v>11204.9077</v>
       </c>
       <c r="G66" t="n">
+        <v>4.326666666666664</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.291166666666664</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3089,25 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
+        <v>4.344666666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.295666666666663</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3131,25 @@
         <v>57923.503</v>
       </c>
       <c r="G68" t="n">
+        <v>4.353999999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.298166666666663</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3173,25 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
+        <v>4.369999999999997</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.301999999999997</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3215,25 @@
         <v>39999</v>
       </c>
       <c r="G70" t="n">
+        <v>4.379333333333331</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.303999999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3257,25 @@
         <v>2500</v>
       </c>
       <c r="G71" t="n">
+        <v>4.379333333333331</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.306166666666664</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3299,25 @@
         <v>100</v>
       </c>
       <c r="G72" t="n">
+        <v>4.387333333333331</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.309499999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3341,25 @@
         <v>2645.1901</v>
       </c>
       <c r="G73" t="n">
+        <v>4.393999999999997</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.312833333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3383,25 @@
         <v>11837.8684</v>
       </c>
       <c r="G74" t="n">
+        <v>4.395999999999997</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.314999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3425,25 @@
         <v>139289.4038</v>
       </c>
       <c r="G75" t="n">
+        <v>4.39933333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.316166666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3467,25 @@
         <v>1333338.7475</v>
       </c>
       <c r="G76" t="n">
+        <v>4.40133333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.316833333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3509,25 @@
         <v>125305.0158538462</v>
       </c>
       <c r="G77" t="n">
+        <v>4.414666666666664</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.319333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3551,25 @@
         <v>16137.7916</v>
       </c>
       <c r="G78" t="n">
+        <v>4.420666666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.320833333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3593,25 @@
         <v>73130</v>
       </c>
       <c r="G79" t="n">
+        <v>4.425999999999997</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.322833333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3635,25 @@
         <v>125669.0107</v>
       </c>
       <c r="G80" t="n">
+        <v>4.41333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.323833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3677,25 @@
         <v>65611.1186</v>
       </c>
       <c r="G81" t="n">
+        <v>4.407999999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.322333333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3719,25 @@
         <v>663.492</v>
       </c>
       <c r="G82" t="n">
+        <v>4.400666666666664</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.323833333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3761,25 @@
         <v>3254.3577</v>
       </c>
       <c r="G83" t="n">
+        <v>4.397333333333331</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.322833333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3803,25 @@
         <v>6951.0764</v>
       </c>
       <c r="G84" t="n">
+        <v>4.388666666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.324666666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3845,25 @@
         <v>137326.2585</v>
       </c>
       <c r="G85" t="n">
+        <v>4.387333333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.326333333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3887,25 @@
         <v>80681.6933</v>
       </c>
       <c r="G86" t="n">
+        <v>4.385333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.326166666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3929,25 @@
         <v>22215.2518</v>
       </c>
       <c r="G87" t="n">
+        <v>4.378666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.327333333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3971,25 @@
         <v>180801.1775</v>
       </c>
       <c r="G88" t="n">
+        <v>4.371333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.329166666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4013,25 @@
         <v>125669.0117</v>
       </c>
       <c r="G89" t="n">
+        <v>4.364666666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.330000000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4055,25 @@
         <v>24.1928</v>
       </c>
       <c r="G90" t="n">
+        <v>4.368666666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.332166666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4097,25 @@
         <v>15525.3863</v>
       </c>
       <c r="G91" t="n">
+        <v>4.374666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.334666666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4139,25 @@
         <v>56107.9754</v>
       </c>
       <c r="G92" t="n">
+        <v>4.372666666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.336666666666669</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4181,25 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
+        <v>4.374666666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.338333333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4223,25 @@
         <v>257.9546</v>
       </c>
       <c r="G94" t="n">
+        <v>4.373999999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.338666666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4265,25 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
+        <v>4.378666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.341500000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4307,25 @@
         <v>6188.3101</v>
       </c>
       <c r="G96" t="n">
+        <v>4.382</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.342833333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4349,25 @@
         <v>72214.05319999999</v>
       </c>
       <c r="G97" t="n">
+        <v>4.381333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.345000000000002</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4391,25 @@
         <v>205308.2753</v>
       </c>
       <c r="G98" t="n">
+        <v>4.381333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.346833333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4433,25 @@
         <v>56697.217</v>
       </c>
       <c r="G99" t="n">
+        <v>4.382000000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.347833333333336</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4475,25 @@
         <v>182127.3935</v>
       </c>
       <c r="G100" t="n">
+        <v>4.381333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.348500000000002</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4517,25 @@
         <v>23741.4032</v>
       </c>
       <c r="G101" t="n">
+        <v>4.380666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.350000000000003</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4559,25 @@
         <v>25617.3247</v>
       </c>
       <c r="G102" t="n">
+        <v>4.378666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.349666666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4601,25 @@
         <v>768.6635</v>
       </c>
       <c r="G103" t="n">
+        <v>4.377333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.350333333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4643,25 @@
         <v>21427.5274</v>
       </c>
       <c r="G104" t="n">
+        <v>4.378666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.352166666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4685,25 @@
         <v>9035.552600000001</v>
       </c>
       <c r="G105" t="n">
+        <v>4.367999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.352333333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4727,25 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>4.363333333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.353166666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4769,25 @@
         <v>17424.5863</v>
       </c>
       <c r="G107" t="n">
+        <v>4.352666666666665</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.353500000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4811,25 @@
         <v>11.9815</v>
       </c>
       <c r="G108" t="n">
+        <v>4.347999999999998</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.355500000000003</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4853,25 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
+        <v>4.34133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.357000000000003</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4895,25 @@
         <v>34006.046</v>
       </c>
       <c r="G110" t="n">
+        <v>4.332666666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.358833333333337</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4937,25 @@
         <v>14500</v>
       </c>
       <c r="G111" t="n">
+        <v>4.326666666666664</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.360833333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4979,25 @@
         <v>764491.3898</v>
       </c>
       <c r="G112" t="n">
+        <v>4.31533333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.360500000000004</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5021,25 @@
         <v>167.645</v>
       </c>
       <c r="G113" t="n">
+        <v>4.311999999999997</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.361166666666671</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5063,25 @@
         <v>1133598.044827416</v>
       </c>
       <c r="G114" t="n">
+        <v>4.317333333333329</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.364500000000004</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5105,25 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
+        <v>4.319999999999997</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.367000000000004</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5147,25 @@
         <v>31108.8278</v>
       </c>
       <c r="G116" t="n">
+        <v>4.321999999999997</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.366833333333337</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5189,25 @@
         <v>1301</v>
       </c>
       <c r="G117" t="n">
+        <v>4.323999999999997</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.36716666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5231,25 @@
         <v>40</v>
       </c>
       <c r="G118" t="n">
+        <v>4.325999999999997</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.36716666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5273,25 @@
         <v>38048.8547</v>
       </c>
       <c r="G119" t="n">
+        <v>4.325333333333331</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.36616666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5315,25 @@
         <v>8065469.0929</v>
       </c>
       <c r="G120" t="n">
+        <v>4.328666666666665</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.36616666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5357,25 @@
         <v>8044925.4302</v>
       </c>
       <c r="G121" t="n">
+        <v>4.326666666666665</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.366500000000004</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5399,25 @@
         <v>16045490.8876</v>
       </c>
       <c r="G122" t="n">
+        <v>4.331999999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.368000000000004</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5441,25 @@
         <v>8545490.887</v>
       </c>
       <c r="G123" t="n">
+        <v>4.330666666666665</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.368500000000004</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5483,25 @@
         <v>16000000</v>
       </c>
       <c r="G124" t="n">
+        <v>4.331333333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.368166666666671</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5525,25 @@
         <v>24005044.8944</v>
       </c>
       <c r="G125" t="n">
+        <v>4.331999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.364166666666671</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5567,25 @@
         <v>7500000</v>
       </c>
       <c r="G126" t="n">
+        <v>4.331333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.362000000000005</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5609,25 @@
         <v>16074040</v>
       </c>
       <c r="G127" t="n">
+        <v>4.336666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.358500000000005</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5651,25 @@
         <v>8005555</v>
       </c>
       <c r="G128" t="n">
+        <v>4.336666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.356833333333338</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5693,25 @@
         <v>17509250</v>
       </c>
       <c r="G129" t="n">
+        <v>4.329999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.354500000000004</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5735,25 @@
         <v>24509250</v>
       </c>
       <c r="G130" t="n">
+        <v>4.327333333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.354000000000005</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5777,25 @@
         <v>25609250</v>
       </c>
       <c r="G131" t="n">
+        <v>4.325333333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.353333333333339</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5819,25 @@
         <v>16759077.555</v>
       </c>
       <c r="G132" t="n">
+        <v>4.323999999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.351333333333339</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5861,25 @@
         <v>17837955.5831</v>
       </c>
       <c r="G133" t="n">
+        <v>4.322666666666664</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.349333333333338</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5903,25 @@
         <v>9000000</v>
       </c>
       <c r="G134" t="n">
+        <v>4.324666666666664</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.348333333333339</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5945,25 @@
         <v>32139572.869</v>
       </c>
       <c r="G135" t="n">
+        <v>4.32933333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.348666666666673</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5987,25 @@
         <v>17281844.4268</v>
       </c>
       <c r="G136" t="n">
+        <v>4.333999999999998</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.349666666666673</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6029,25 @@
         <v>8829262.557</v>
       </c>
       <c r="G137" t="n">
+        <v>4.338666666666664</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.349000000000006</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6071,25 @@
         <v>247914.9404438914</v>
       </c>
       <c r="G138" t="n">
+        <v>4.34733333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.350166666666672</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +6113,25 @@
         <v>11895.6488</v>
       </c>
       <c r="G139" t="n">
+        <v>4.355999999999996</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.350666666666672</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +6155,25 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
+        <v>4.364666666666663</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.352000000000005</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +6197,25 @@
         <v>500</v>
       </c>
       <c r="G141" t="n">
+        <v>4.372666666666663</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.353166666666671</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +6239,25 @@
         <v>79.45820000000001</v>
       </c>
       <c r="G142" t="n">
+        <v>4.380666666666664</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.353500000000005</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6281,25 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
+        <v>4.38933333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.354833333333337</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6323,25 @@
         <v>58588.0694</v>
       </c>
       <c r="G144" t="n">
+        <v>4.394666666666664</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.356000000000004</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6365,25 @@
         <v>107488.7195</v>
       </c>
       <c r="G145" t="n">
+        <v>4.400666666666664</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.357333333333337</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6407,25 @@
         <v>227947.3474</v>
       </c>
       <c r="G146" t="n">
+        <v>4.404666666666665</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.358166666666671</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6449,25 @@
         <v>185220.8717</v>
       </c>
       <c r="G147" t="n">
+        <v>4.409333333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.359000000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6491,25 @@
         <v>112350</v>
       </c>
       <c r="G148" t="n">
+        <v>4.413999999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.360000000000004</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6533,25 @@
         <v>245428.1973</v>
       </c>
       <c r="G149" t="n">
+        <v>4.422666666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.362833333333338</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,20 +6575,25 @@
         <v>48160.11787258427</v>
       </c>
       <c r="G150" t="n">
+        <v>4.429999999999998</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.364000000000005</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5681,18 +6615,21 @@
         <v>35000</v>
       </c>
       <c r="G151" t="n">
+        <v>4.436666666666665</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.365166666666672</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6653,21 @@
         <v>609.2333274157303</v>
       </c>
       <c r="G152" t="n">
+        <v>4.439999999999998</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.36583333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6691,21 @@
         <v>144312.5243</v>
       </c>
       <c r="G153" t="n">
+        <v>4.437999999999998</v>
+      </c>
+      <c r="H153" t="n">
         <v>4.366000000000008</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6729,21 @@
         <v>644129.2438000001</v>
       </c>
       <c r="G154" t="n">
+        <v>4.435999999999997</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.366166666666675</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6767,21 @@
         <v>379868.6775</v>
       </c>
       <c r="G155" t="n">
+        <v>4.433999999999997</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.365833333333342</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6805,21 @@
         <v>113082.6901</v>
       </c>
       <c r="G156" t="n">
+        <v>4.432666666666663</v>
+      </c>
+      <c r="H156" t="n">
         <v>4.365833333333342</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6843,21 @@
         <v>28921.6318</v>
       </c>
       <c r="G157" t="n">
+        <v>4.431333333333329</v>
+      </c>
+      <c r="H157" t="n">
         <v>4.366000000000009</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6881,21 @@
         <v>625.7954</v>
       </c>
       <c r="G158" t="n">
+        <v>4.428666666666663</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.366666666666675</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6919,21 @@
         <v>40</v>
       </c>
       <c r="G159" t="n">
+        <v>4.427333333333329</v>
+      </c>
+      <c r="H159" t="n">
         <v>4.367333333333343</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6957,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
+        <v>4.425999999999997</v>
+      </c>
+      <c r="H160" t="n">
         <v>4.368500000000009</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6995,21 @@
         <v>5716.5702</v>
       </c>
       <c r="G161" t="n">
+        <v>4.425333333333329</v>
+      </c>
+      <c r="H161" t="n">
         <v>4.369333333333342</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +7033,21 @@
         <v>8522.3266</v>
       </c>
       <c r="G162" t="n">
+        <v>4.424666666666663</v>
+      </c>
+      <c r="H162" t="n">
         <v>4.37050000000001</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +7071,21 @@
         <v>498</v>
       </c>
       <c r="G163" t="n">
+        <v>4.423999999999995</v>
+      </c>
+      <c r="H163" t="n">
         <v>4.371666666666678</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +7109,21 @@
         <v>290</v>
       </c>
       <c r="G164" t="n">
+        <v>4.421333333333329</v>
+      </c>
+      <c r="H164" t="n">
         <v>4.373500000000011</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +7147,21 @@
         <v>98801.1963</v>
       </c>
       <c r="G165" t="n">
+        <v>4.418666666666663</v>
+      </c>
+      <c r="H165" t="n">
         <v>4.376666666666678</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +7185,21 @@
         <v>2775.4783</v>
       </c>
       <c r="G166" t="n">
+        <v>4.413999999999997</v>
+      </c>
+      <c r="H166" t="n">
         <v>4.377833333333344</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +7223,21 @@
         <v>317954.7726</v>
       </c>
       <c r="G167" t="n">
+        <v>4.411999999999996</v>
+      </c>
+      <c r="H167" t="n">
         <v>4.380666666666676</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +7261,21 @@
         <v>11.9516</v>
       </c>
       <c r="G168" t="n">
+        <v>4.409999999999997</v>
+      </c>
+      <c r="H168" t="n">
         <v>4.381500000000011</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7299,21 @@
         <v>11.9909</v>
       </c>
       <c r="G169" t="n">
+        <v>4.410666666666663</v>
+      </c>
+      <c r="H169" t="n">
         <v>4.38350000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7337,21 @@
         <v>76763.25380000001</v>
       </c>
       <c r="G170" t="n">
+        <v>4.408666666666663</v>
+      </c>
+      <c r="H170" t="n">
         <v>4.384833333333344</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7375,21 @@
         <v>2540.0992</v>
       </c>
       <c r="G171" t="n">
+        <v>4.401999999999997</v>
+      </c>
+      <c r="H171" t="n">
         <v>4.384666666666677</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7413,21 @@
         <v>10432.2171</v>
       </c>
       <c r="G172" t="n">
+        <v>4.402666666666664</v>
+      </c>
+      <c r="H172" t="n">
         <v>4.387833333333344</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7451,21 @@
         <v>276.923</v>
       </c>
       <c r="G173" t="n">
+        <v>4.403999999999997</v>
+      </c>
+      <c r="H173" t="n">
         <v>4.389666666666677</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7489,21 @@
         <v>276.2307</v>
       </c>
       <c r="G174" t="n">
+        <v>4.399999999999997</v>
+      </c>
+      <c r="H174" t="n">
         <v>4.388000000000011</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7527,21 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
+        <v>4.397999999999998</v>
+      </c>
+      <c r="H175" t="n">
         <v>4.388000000000011</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7565,21 @@
         <v>488.4794</v>
       </c>
       <c r="G176" t="n">
+        <v>4.392666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>4.387000000000011</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7603,21 @@
         <v>5833.777</v>
       </c>
       <c r="G177" t="n">
+        <v>4.389333333333331</v>
+      </c>
+      <c r="H177" t="n">
         <v>4.386833333333344</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7641,21 @@
         <v>950.306</v>
       </c>
       <c r="G178" t="n">
+        <v>4.382666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>4.385833333333344</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7679,21 @@
         <v>84588.80710000001</v>
       </c>
       <c r="G179" t="n">
+        <v>4.374666666666665</v>
+      </c>
+      <c r="H179" t="n">
         <v>4.385833333333344</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7717,21 @@
         <v>0.0003</v>
       </c>
       <c r="G180" t="n">
+        <v>4.366666666666664</v>
+      </c>
+      <c r="H180" t="n">
         <v>4.386166666666678</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7755,21 @@
         <v>11.9609</v>
       </c>
       <c r="G181" t="n">
+        <v>4.360666666666664</v>
+      </c>
+      <c r="H181" t="n">
         <v>4.386333333333344</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7793,21 @@
         <v>11.6438</v>
       </c>
       <c r="G182" t="n">
+        <v>4.35933333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>4.387500000000011</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7831,21 @@
         <v>460.6111</v>
       </c>
       <c r="G183" t="n">
+        <v>4.354666666666664</v>
+      </c>
+      <c r="H183" t="n">
         <v>4.387500000000011</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7869,21 @@
         <v>81082.74800000001</v>
       </c>
       <c r="G184" t="n">
+        <v>4.347333333333331</v>
+      </c>
+      <c r="H184" t="n">
         <v>4.387500000000011</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7907,21 @@
         <v>56318.7</v>
       </c>
       <c r="G185" t="n">
+        <v>4.342666666666664</v>
+      </c>
+      <c r="H185" t="n">
         <v>4.387500000000011</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7945,21 @@
         <v>117836.0948</v>
       </c>
       <c r="G186" t="n">
+        <v>4.347999999999998</v>
+      </c>
+      <c r="H186" t="n">
         <v>4.388833333333343</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7983,21 @@
         <v>3592.8362</v>
       </c>
       <c r="G187" t="n">
+        <v>4.348666666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>4.390833333333344</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +8021,21 @@
         <v>70000</v>
       </c>
       <c r="G188" t="n">
+        <v>4.349333333333331</v>
+      </c>
+      <c r="H188" t="n">
         <v>4.392833333333344</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +8059,21 @@
         <v>22530</v>
       </c>
       <c r="G189" t="n">
+        <v>4.354666666666664</v>
+      </c>
+      <c r="H189" t="n">
         <v>4.394166666666677</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +8097,21 @@
         <v>210</v>
       </c>
       <c r="G190" t="n">
+        <v>4.358666666666664</v>
+      </c>
+      <c r="H190" t="n">
         <v>4.395833333333343</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +8135,21 @@
         <v>96122.83620000001</v>
       </c>
       <c r="G191" t="n">
+        <v>4.36533333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>4.397000000000009</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +8173,21 @@
         <v>2470</v>
       </c>
       <c r="G192" t="n">
+        <v>4.36733333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>4.397666666666676</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +8211,21 @@
         <v>143722.7163</v>
       </c>
       <c r="G193" t="n">
+        <v>4.372666666666663</v>
+      </c>
+      <c r="H193" t="n">
         <v>4.398333333333341</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +8249,21 @@
         <v>149.9255</v>
       </c>
       <c r="G194" t="n">
+        <v>4.375999999999996</v>
+      </c>
+      <c r="H194" t="n">
         <v>4.398666666666675</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +8287,21 @@
         <v>671</v>
       </c>
       <c r="G195" t="n">
+        <v>4.382666666666663</v>
+      </c>
+      <c r="H195" t="n">
         <v>4.399500000000009</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +8325,21 @@
         <v>100</v>
       </c>
       <c r="G196" t="n">
+        <v>4.389333333333329</v>
+      </c>
+      <c r="H196" t="n">
         <v>4.400166666666676</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8363,21 @@
         <v>24562.0027</v>
       </c>
       <c r="G197" t="n">
+        <v>4.387333333333329</v>
+      </c>
+      <c r="H197" t="n">
         <v>4.399666666666676</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8401,21 @@
         <v>70</v>
       </c>
       <c r="G198" t="n">
+        <v>4.393999999999995</v>
+      </c>
+      <c r="H198" t="n">
         <v>4.399166666666677</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8439,21 @@
         <v>11161.5408</v>
       </c>
       <c r="G199" t="n">
+        <v>4.398666666666661</v>
+      </c>
+      <c r="H199" t="n">
         <v>4.398166666666677</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8477,21 @@
         <v>363490.1055</v>
       </c>
       <c r="G200" t="n">
+        <v>4.405333333333328</v>
+      </c>
+      <c r="H200" t="n">
         <v>4.397666666666677</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8515,21 @@
         <v>10093.9426</v>
       </c>
       <c r="G201" t="n">
+        <v>4.403333333333327</v>
+      </c>
+      <c r="H201" t="n">
         <v>4.396500000000011</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8553,21 @@
         <v>7035.2586</v>
       </c>
       <c r="G202" t="n">
+        <v>4.39866666666666</v>
+      </c>
+      <c r="H202" t="n">
         <v>4.395333333333344</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8591,21 @@
         <v>194.1203</v>
       </c>
       <c r="G203" t="n">
+        <v>4.393333333333326</v>
+      </c>
+      <c r="H203" t="n">
         <v>4.393833333333345</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8629,21 @@
         <v>22.9525</v>
       </c>
       <c r="G204" t="n">
+        <v>4.391999999999992</v>
+      </c>
+      <c r="H204" t="n">
         <v>4.393500000000012</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8667,401 @@
         <v>66386.4988</v>
       </c>
       <c r="G205" t="n">
+        <v>4.385999999999993</v>
+      </c>
+      <c r="H205" t="n">
         <v>4.392166666666679</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F206" t="n">
+        <v>83900.2268</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4.381999999999993</v>
+      </c>
+      <c r="H206" t="n">
+        <v>4.391333333333345</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22.6216</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4.383999999999994</v>
+      </c>
+      <c r="H207" t="n">
+        <v>4.391333333333345</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4.382666666666661</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4.390500000000012</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4.38666666666666</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.389666666666678</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4.383999999999995</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.388000000000011</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4.384666666666662</v>
+      </c>
+      <c r="H211" t="n">
+        <v>4.387166666666677</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F212" t="n">
+        <v>20</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4.387333333333329</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4.386500000000011</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22486.87613685393</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4.389999999999996</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4.387166666666676</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F214" t="n">
+        <v>274766.3551</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4.386666666666662</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4.385833333333342</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F215" t="n">
+        <v>550000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4.380666666666664</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.384333333333342</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N273"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>394620.64361406</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>394820.64361406</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="J3" t="n">
         <v>4.14</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="J4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K4" t="n">
         <v>4.14</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="J5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K5" t="n">
         <v>4.14</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>418474.96241406</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="J6" t="n">
         <v>4.16</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>418485.96241406</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="J7" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="K7" t="n">
         <v>4.16</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>417298.31401406</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="J8" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K8" t="n">
         <v>4.16</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,15 @@
         <v>519742.7354140599</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +755,15 @@
         <v>519752.7354140599</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +788,15 @@
         <v>849166.6345140599</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -882,22 +823,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,22 +856,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,22 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +955,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +988,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,26 +1019,15 @@
         <v>1861530.97421406</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,26 +1052,15 @@
         <v>1861540.97421406</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,24 +1085,21 @@
         <v>-1161019.90248594</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,22 +1126,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1304,26 +1161,19 @@
         <v>3284213.83511406</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1350,22 +1200,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1390,24 +1235,19 @@
         <v>3284213.83511406</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1434,22 +1274,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1476,22 +1311,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1518,22 +1348,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1558,24 +1383,19 @@
         <v>21589400.88051406</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1600,24 +1420,19 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1642,24 +1457,19 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1684,24 +1494,19 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1726,24 +1531,19 @@
         <v>29584146.33481406</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1768,24 +1568,19 @@
         <v>29578892.54341406</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1812,22 +1607,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1854,22 +1644,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1894,24 +1679,19 @@
         <v>19741466.31841406</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1938,22 +1718,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1980,22 +1755,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2022,22 +1792,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2062,24 +1827,19 @@
         <v>10779875.31841406</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2104,24 +1864,19 @@
         <v>10779875.31841406</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2146,24 +1901,19 @@
         <v>10711693.50031406</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2188,24 +1938,19 @@
         <v>10711703.50031406</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2230,24 +1975,19 @@
         <v>-6117570.139285939</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2272,24 +2012,19 @@
         <v>-6269129.360585939</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2316,22 +2051,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2358,22 +2088,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2400,22 +2125,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2442,22 +2162,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2484,22 +2199,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2526,22 +2236,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2568,22 +2273,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2610,22 +2310,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2652,22 +2347,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,22 +2384,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2736,22 +2421,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2778,22 +2458,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2820,22 +2495,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2862,22 +2532,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2904,22 +2569,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2946,22 +2606,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2988,22 +2643,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3030,22 +2680,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3072,22 +2717,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3114,22 +2754,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3156,22 +2791,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3198,22 +2828,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3240,22 +2865,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3282,22 +2902,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3324,22 +2939,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3366,22 +2976,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3408,22 +3013,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3450,22 +3050,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3492,22 +3087,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3534,22 +3124,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3576,22 +3161,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3618,22 +3198,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3660,22 +3235,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3702,22 +3272,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3744,22 +3309,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3786,22 +3346,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3828,22 +3383,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3870,22 +3420,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3912,22 +3457,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3954,22 +3494,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3996,22 +3531,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4038,22 +3568,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4080,22 +3605,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4122,22 +3642,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4164,22 +3679,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4206,22 +3716,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4248,22 +3753,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4290,22 +3790,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4332,22 +3827,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4374,22 +3864,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4416,22 +3901,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4458,22 +3938,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4500,22 +3975,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4542,22 +4012,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4584,22 +4049,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4626,22 +4086,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4668,22 +4123,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4710,22 +4160,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4752,22 +4197,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4794,22 +4234,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4836,22 +4271,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4878,22 +4308,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4920,22 +4345,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4962,22 +4382,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5004,22 +4419,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5046,22 +4456,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5088,22 +4493,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5130,22 +4530,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5172,22 +4567,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5214,22 +4604,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5256,22 +4641,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5298,22 +4678,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5340,22 +4715,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5382,22 +4752,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5424,22 +4789,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5466,22 +4826,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5508,22 +4863,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5550,22 +4900,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5592,22 +4937,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5634,22 +4974,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5676,22 +5011,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5718,22 +5048,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5760,22 +5085,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5802,22 +5122,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5844,22 +5159,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5886,22 +5196,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5928,22 +5233,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5970,22 +5270,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6012,22 +5307,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6054,22 +5344,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6096,22 +5381,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6138,22 +5418,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6180,22 +5455,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6222,22 +5492,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6264,22 +5529,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6306,22 +5566,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6348,22 +5603,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6390,22 +5640,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6432,22 +5677,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6474,22 +5714,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6516,22 +5751,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6558,22 +5788,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6600,22 +5825,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6642,22 +5862,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6684,22 +5899,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6726,22 +5936,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6768,22 +5973,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6810,22 +6010,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6852,22 +6047,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6894,22 +6084,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6936,22 +6121,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6978,22 +6158,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7020,22 +6195,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7062,22 +6232,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7104,22 +6269,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7146,22 +6306,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7188,22 +6343,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7230,22 +6380,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7272,22 +6417,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7314,22 +6454,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7356,22 +6491,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7398,22 +6528,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7440,22 +6565,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7482,22 +6602,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7524,22 +6639,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7566,22 +6676,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7608,22 +6713,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7650,22 +6750,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7692,22 +6787,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7734,22 +6824,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7776,22 +6861,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7818,22 +6898,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7860,22 +6935,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7902,22 +6972,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7944,22 +7009,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7986,22 +7046,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8028,22 +7083,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8070,22 +7120,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8112,22 +7157,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8154,22 +7194,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8196,22 +7231,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8238,22 +7268,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8280,22 +7305,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8322,22 +7342,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8364,22 +7379,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8406,22 +7416,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8448,22 +7453,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8490,22 +7490,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8532,22 +7527,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8574,22 +7564,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8616,22 +7601,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8658,22 +7638,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8700,22 +7675,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8742,22 +7712,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8784,22 +7749,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8826,22 +7786,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8868,22 +7823,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8910,22 +7860,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8952,22 +7897,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8994,22 +7934,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9036,22 +7971,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9078,22 +8008,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9120,22 +8045,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9162,24 +8082,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1.069519230769231</v>
-      </c>
-      <c r="N209" t="n">
-        <v>1.021739130434783</v>
-      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9206,16 +8119,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9242,16 +8156,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9278,16 +8193,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9314,16 +8230,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9350,16 +8267,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9386,16 +8304,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9422,16 +8341,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9458,16 +8378,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9494,16 +8415,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9530,16 +8452,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9566,16 +8489,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9602,16 +8526,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9638,16 +8563,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9672,18 +8598,17 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9710,16 +8635,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9746,16 +8668,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9782,16 +8701,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9818,16 +8734,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9854,16 +8767,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9890,16 +8800,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9926,16 +8833,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9962,16 +8866,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9998,16 +8899,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10034,16 +8932,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10070,16 +8965,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10106,16 +8998,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10142,16 +9031,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10178,16 +9064,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10214,16 +9097,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10250,16 +9130,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10284,18 +9161,15 @@
         <v>83178780.42574172</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10322,16 +9196,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10358,16 +9229,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10392,18 +9260,15 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10430,16 +9295,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10464,18 +9326,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10500,18 +9359,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10536,18 +9392,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10572,18 +9425,15 @@
         <v>83299958.74564171</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10608,18 +9458,15 @@
         <v>83203835.90944171</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10646,16 +9493,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10680,18 +9524,15 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10718,16 +9559,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10752,18 +9590,15 @@
         <v>83201886.9839417</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10790,16 +9625,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10826,16 +9658,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10860,18 +9689,15 @@
         <v>83177394.9812417</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10896,18 +9722,15 @@
         <v>83166233.4404417</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10934,16 +9757,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10970,16 +9790,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11006,16 +9823,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11042,16 +9856,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11078,16 +9889,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11114,16 +9922,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11150,16 +9955,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11186,16 +9988,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11220,18 +10019,15 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11256,18 +10052,15 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11292,18 +10085,15 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11328,18 +10118,15 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11364,18 +10151,15 @@
         <v>83453074.55834171</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11400,18 +10184,15 @@
         <v>83475561.43447857</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11438,16 +10219,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11472,20 +10250,17 @@
         <v>82650795.07937856</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>394620.64361406</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>394820.64361406</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.14</v>
@@ -521,7 +521,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.15</v>
@@ -562,7 +562,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.16</v>
@@ -603,7 +603,7 @@
         <v>418474.96241406</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.16</v>
@@ -640,7 +640,7 @@
         <v>418485.96241406</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4.17</v>
@@ -681,7 +681,7 @@
         <v>417298.31401406</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.23</v>
@@ -722,11 +722,19 @@
         <v>519742.7354140599</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -758,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -824,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -857,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -890,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -923,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -956,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -989,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1022,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1055,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1085,15 +1153,15 @@
         <v>-1161019.90248594</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1127,7 +1195,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1164,7 +1234,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,10 +1270,14 @@
         <v>3284213.83511406</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,10 +1311,12 @@
         <v>3284213.83511406</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1275,7 +1353,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1312,7 +1392,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1349,7 +1431,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1383,10 +1467,12 @@
         <v>21589400.88051406</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,10 +1506,12 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,10 +1545,12 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,10 +1584,12 @@
         <v>29589400.88051406</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1531,10 +1623,12 @@
         <v>29584146.33481406</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1568,10 +1662,12 @@
         <v>29578892.54341406</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1608,7 +1704,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1645,7 +1743,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,10 +1779,12 @@
         <v>19741466.31841406</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1719,7 +1821,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1756,7 +1860,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1793,7 +1899,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1827,10 +1935,12 @@
         <v>10779875.31841406</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,10 +1974,12 @@
         <v>10779875.31841406</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,10 +2013,12 @@
         <v>10711693.50031406</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,10 +2052,12 @@
         <v>10711703.50031406</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,10 +2091,12 @@
         <v>-6117570.139285939</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,10 +2130,12 @@
         <v>-6269129.360585939</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,7 +2172,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2089,7 +2211,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2126,7 +2250,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,7 +2289,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,7 +2328,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,7 +2367,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,7 +2406,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,7 +2445,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,7 +2484,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,7 +2523,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2422,7 +2562,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,7 +2601,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,7 +2640,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,7 +2679,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,7 +2718,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,7 +2757,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,7 +2796,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,7 +2835,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,7 +2874,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,7 +2913,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,7 +2952,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2991,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,7 +3030,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,7 +3069,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,7 +3108,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,7 +3147,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,7 +3186,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,7 +3225,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,7 +3264,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,7 +3303,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,7 +3342,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,7 +3381,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,7 +3420,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3459,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,7 +3498,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,7 +3537,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,7 +3576,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,7 +3615,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,7 +3654,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,7 +3771,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,7 +3849,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,7 +3888,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,7 +3927,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,7 +3966,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,7 +4005,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,7 +4044,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,7 +4083,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,7 +4161,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,7 +4200,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,7 +4239,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,7 +4278,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,7 +4356,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4395,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,7 +4434,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,7 +4473,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4512,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,7 +4551,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,7 +4590,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,7 +4629,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,7 +4668,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,7 +4707,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,7 +4746,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,7 +4785,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,7 +4824,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4863,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4902,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,7 +4941,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,7 +4980,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,7 +5019,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,7 +5058,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,7 +5097,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,7 +5136,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +5175,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,7 +5214,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,7 +5253,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,7 +5292,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5331,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,7 +5370,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,7 +5409,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,7 +5448,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,7 +5487,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,7 +5526,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,7 +5565,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +5604,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,7 +5643,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,7 +5682,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,7 +5721,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,7 +5760,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,7 +5799,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,7 +5838,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,7 +5877,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,7 +5916,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5641,7 +5955,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,7 +5994,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,7 +6033,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,7 +6072,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5789,7 +6111,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5826,7 +6150,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,7 +6189,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5900,7 +6228,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,7 +6267,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5974,7 +6306,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,7 +6345,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,7 +6384,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,7 +6423,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,7 +6462,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,7 +6501,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,7 +6540,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6233,7 +6579,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,7 +6618,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,7 +6657,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,7 +6696,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,7 +6735,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,7 +6774,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,7 +6813,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6492,7 +6852,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,7 +6891,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6566,7 +6930,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6603,7 +6969,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,7 +7008,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,7 +7047,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,7 +7086,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,7 +7125,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,7 +7164,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6825,7 +7203,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6862,7 +7242,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6899,7 +7281,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,7 +7320,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,7 +7359,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,7 +7398,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7047,7 +7437,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,7 +7476,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,7 +7554,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,7 +7593,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7232,7 +7632,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7269,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7306,7 +7710,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7343,7 +7749,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,7 +7788,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,7 +7827,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,7 +7866,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,7 +7944,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,7 +7983,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,7 +8022,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,7 +8061,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7676,7 +8100,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,7 +8139,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,7 +8178,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,7 +8217,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,7 +8256,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,7 +8295,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,7 +8334,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,7 +8373,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,7 +8412,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,7 +8490,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,7 +8529,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,7 +8568,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,7 +8607,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,7 +8646,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,7 +8685,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,7 +8724,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,7 +8763,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,7 +8802,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,7 +8880,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,7 +8919,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,7 +8958,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,19 +8994,23 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>1.055096153846154</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.021739130434783</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8561,15 +9035,11 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8598,16 +9068,14 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -8633,7 +9101,7 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8831,7 +9299,7 @@
         <v>83174640.02104171</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8897,7 +9365,7 @@
         <v>83174363.79034171</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8963,7 +9431,7 @@
         <v>83173885.31094171</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8996,7 +9464,7 @@
         <v>83179719.08794171</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9128,7 +9596,7 @@
         <v>83178768.78194171</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9161,7 +9629,7 @@
         <v>83178780.42574172</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9194,7 +9662,7 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9227,7 +9695,7 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9260,7 +9728,7 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9293,7 +9761,7 @@
         <v>83296155.90944171</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9326,7 +9794,7 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9359,7 +9827,7 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9392,7 +9860,7 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9425,7 +9893,7 @@
         <v>83299958.74564171</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9458,7 +9926,7 @@
         <v>83203835.90944171</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9491,7 +9959,7 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9524,7 +9992,7 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9557,7 +10025,7 @@
         <v>83201215.9839417</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9590,7 +10058,7 @@
         <v>83201886.9839417</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9623,7 +10091,7 @@
         <v>83201886.9839417</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9689,7 +10157,7 @@
         <v>83177394.9812417</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9722,7 +10190,7 @@
         <v>83166233.4404417</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9887,7 +10355,7 @@
         <v>83519458.4355417</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9953,7 +10421,7 @@
         <v>83453071.93674171</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9986,7 +10454,7 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10019,7 +10487,7 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10052,7 +10520,7 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10085,7 +10553,7 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10118,7 +10586,7 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10151,7 +10619,7 @@
         <v>83453074.55834171</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10184,7 +10652,7 @@
         <v>83475561.43447857</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10217,7 +10685,7 @@
         <v>83200795.07937856</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10250,7 +10718,7 @@
         <v>82650795.07937856</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10261,6 +10729,6 @@
       <c r="M273" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>4.14</v>
       </c>
@@ -562,11 +560,9 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>4.14</v>
       </c>
@@ -681,11 +677,9 @@
         <v>417298.31401406</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>4.16</v>
       </c>
@@ -722,19 +716,11 @@
         <v>519742.7354140599</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +752,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +785,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -844,14 +818,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -883,14 +851,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -922,14 +884,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -961,14 +917,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +950,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +983,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +1016,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1049,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1082,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1115,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1148,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1270,19 +1178,11 @@
         <v>3284213.83511406</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1214,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1247,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1280,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1313,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1346,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1379,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1412,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1445,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1478,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1511,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1544,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1610,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1643,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1676,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1709,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1742,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1775,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1808,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1841,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1874,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1907,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1940,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1973,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +2006,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2039,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2072,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2105,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2138,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2171,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2204,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2237,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2270,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2303,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2336,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2369,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2402,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2468,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2501,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2534,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2567,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2600,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2633,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3030,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3069,14 +2699,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3108,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3147,14 +2765,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3186,14 +2798,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3225,14 +2831,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3264,14 +2864,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +2897,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +2930,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +2963,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +2996,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3029,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3062,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3095,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3128,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3161,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3194,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3260,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3359,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3392,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3491,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3524,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +3623,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +3689,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +3722,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3755,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3788,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +3821,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +3854,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +3920,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +3953,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +3986,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4629,14 +4019,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4668,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4746,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4785,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4824,14 +4184,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4217,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4899,17 +4247,11 @@
         <v>-6428726.417261615</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4941,14 +4283,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4980,14 +4316,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5019,14 +4349,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5058,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5094,17 +4412,11 @@
         <v>-6649957.363361615</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5133,17 +4445,11 @@
         <v>-6643261.520461615</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5172,17 +4478,11 @@
         <v>-5519993.241056036</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5211,17 +4511,11 @@
         <v>-5531198.148756037</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5250,17 +4544,11 @@
         <v>-5531188.148756037</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5292,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5331,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5370,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5409,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5448,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5487,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5526,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5565,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5604,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5643,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5682,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5721,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5760,14 +4976,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5799,14 +5009,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5877,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5108,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5955,14 +5141,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5174,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5207,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5273,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6150,14 +5306,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6189,14 +5339,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6228,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +5471,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +5537,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +5570,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +5669,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +5801,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +5834,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +5966,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +5999,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7047,14 +6065,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7086,14 +6098,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7125,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7164,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7203,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7242,14 +6230,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7281,14 +6263,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7320,14 +6296,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7359,14 +6329,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7395,15 +6359,15 @@
         <v>8573301.980925225</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>4.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -7437,9 +6401,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7476,9 +6438,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7515,9 +6475,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,9 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7593,9 +6549,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7632,9 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7671,9 +6623,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,9 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7749,9 +6697,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7788,9 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7827,9 +6771,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7866,9 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7905,9 +6845,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,9 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7983,9 +6919,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,9 +6956,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,9 +6993,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,9 +7030,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,9 +7067,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,9 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,9 +7141,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,9 +7178,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,9 +7215,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,9 +7252,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,9 +7289,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,9 +7326,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,9 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,9 +7400,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,9 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,9 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,9 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,9 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,9 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8763,9 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,9 +7696,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8841,9 +7733,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8880,9 +7770,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,9 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,9 +7844,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,23 +7878,19 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.16</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.055096153846154</v>
-      </c>
-      <c r="M221" t="n">
-        <v>1.021739130434783</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9035,11 +7915,15 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9072,7 +7956,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +7989,15 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +8030,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9171,7 +8067,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9204,7 +8104,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9237,7 +8141,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9270,7 +8178,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +8211,15 @@
         <v>83174640.02104171</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9336,7 +8252,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +8285,15 @@
         <v>83174363.79034171</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9402,7 +8326,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9431,11 +8359,15 @@
         <v>83173885.31094171</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +8396,15 @@
         <v>83179719.08794171</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9501,7 +8437,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9534,7 +8474,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9567,7 +8511,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9596,11 +8544,15 @@
         <v>83178768.78194171</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +8581,15 @@
         <v>83178780.42574172</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +8618,15 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +8655,15 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +8692,15 @@
         <v>83178319.81464171</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9761,11 +8729,15 @@
         <v>83296155.90944171</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9794,11 +8766,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +8803,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9860,11 +8840,15 @@
         <v>83299748.74564171</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9893,11 +8877,15 @@
         <v>83299958.74564171</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9926,11 +8914,15 @@
         <v>83203835.90944171</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +8951,15 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9992,11 +8988,15 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10025,11 +9025,15 @@
         <v>83201215.9839417</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +9062,15 @@
         <v>83201886.9839417</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10091,11 +9099,15 @@
         <v>83201886.9839417</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10128,7 +9140,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10161,7 +9177,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +9214,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10227,7 +9251,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10260,7 +9288,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +9325,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10326,7 +9362,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +9395,15 @@
         <v>83519458.4355417</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10392,7 +9436,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10421,11 +9469,15 @@
         <v>83453071.93674171</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10454,11 +9506,15 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10487,11 +9543,15 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +9580,15 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10553,11 +9617,15 @@
         <v>83453084.55834171</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +9654,15 @@
         <v>83453094.55834171</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +9691,15 @@
         <v>83453074.55834171</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10652,11 +9728,15 @@
         <v>83475561.43447857</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +9765,15 @@
         <v>83200795.07937856</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10718,17 +9802,21 @@
         <v>82650795.07937856</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
       <c r="M273" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -521,9 +521,11 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.15</v>
+      </c>
       <c r="J4" t="n">
         <v>4.14</v>
       </c>
@@ -560,9 +562,11 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.16</v>
+      </c>
       <c r="J5" t="n">
         <v>4.14</v>
       </c>
@@ -677,9 +681,11 @@
         <v>417298.31401406</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J8" t="n">
         <v>4.16</v>
       </c>
@@ -716,11 +722,19 @@
         <v>519742.7354140599</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +763,19 @@
         <v>519752.7354140599</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -785,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -818,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -851,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -884,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -917,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -950,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -983,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1016,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1049,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1082,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1115,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1148,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1181,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1214,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1247,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1280,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1313,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1346,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1379,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1412,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1445,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1478,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1511,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1544,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1610,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1643,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1676,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1709,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1742,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1775,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1808,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1841,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1874,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1907,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1940,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1973,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2006,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2039,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2072,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2105,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2138,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2171,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2204,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2237,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2270,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2402,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2600,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3225,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2930,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3459,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3062,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3537,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4317,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4395,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4473,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4707,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4151,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4899,17 @@
         <v>-6428726.417261615</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +5019,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +5058,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +5094,17 @@
         <v>-6649957.363361615</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4445,11 +5133,17 @@
         <v>-6643261.520461615</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +5172,17 @@
         <v>-5519993.241056036</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +5211,17 @@
         <v>-5531198.148756037</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4544,11 +5250,17 @@
         <v>-5531188.148756037</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5331,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5370,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5487,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5565,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4844,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5643,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4943,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4976,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5799,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5141,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5174,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5207,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5273,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5306,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5372,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5438,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5504,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +6423,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +6462,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +6501,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5636,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5669,8 +6579,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5702,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5735,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5768,8 +6696,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5801,8 +6735,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5834,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5867,8 +6813,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5933,8 +6891,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5966,8 +6930,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5999,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6032,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6065,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6098,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6131,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +7203,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6230,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6263,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6296,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6329,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6359,15 +7395,15 @@
         <v>8573301.980925225</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6401,7 +7437,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6438,7 +7476,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6512,7 +7554,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,7 +7593,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6586,7 +7632,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,7 +7710,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,7 +7749,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,7 +7788,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6771,7 +7827,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,7 +7866,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6845,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6882,7 +7944,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6919,7 +7983,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6956,7 +8022,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,7 +8061,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7030,7 +8100,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,7 +8139,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,7 +8178,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,7 +8217,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,7 +8256,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,7 +8295,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7252,7 +8334,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7289,7 +8373,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,7 +8412,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7363,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,19 +8487,23 @@
         <v>83397210.71916912</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4.16</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>1.069519230769231</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.021739130434783</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7434,15 +8528,11 @@
         <v>83397210.71916912</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7471,15 +8561,11 @@
         <v>83396601.48584171</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7508,15 +8594,11 @@
         <v>83252288.96154171</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7545,15 +8627,11 @@
         <v>83252288.96154171</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +8664,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +8697,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +8730,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +8763,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +8796,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +8829,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7804,15 +8858,11 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7841,15 +8891,11 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7878,15 +8924,11 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +8961,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7952,15 +8990,11 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7989,15 +9023,11 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8026,15 +9056,11 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +9093,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +9126,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8137,15 +9155,11 @@
         <v>83166747.90314171</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8174,15 +9188,11 @@
         <v>83164207.80394171</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +9225,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8248,15 +9254,11 @@
         <v>83174640.02104171</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8285,15 +9287,11 @@
         <v>83174363.79034171</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8322,15 +9320,11 @@
         <v>83174373.79034171</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +9357,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +9390,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9423,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +9456,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +9489,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +9522,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +9555,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +9588,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +9621,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +9654,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +9687,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +9720,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +9753,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +9786,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +9819,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +9852,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +9885,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +9918,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +9951,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +9984,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +10017,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +10050,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +10083,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +10116,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +10149,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +10182,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +10215,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +10248,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +10281,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +10314,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +10347,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +10380,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +10413,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +10446,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +10479,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10512,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +10545,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +10578,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +10611,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +10644,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest WET.xlsx
+++ b/BackTest/2019-10-26 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>338768.7192</v>
       </c>
       <c r="G2" t="n">
-        <v>394620.64361406</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>394820.64361406</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>1127.1634</v>
       </c>
       <c r="G4" t="n">
-        <v>395947.80701406</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>16036.3007</v>
       </c>
       <c r="G5" t="n">
-        <v>395947.80701406</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,15 @@
         <v>22527.1554</v>
       </c>
       <c r="G6" t="n">
-        <v>418474.96241406</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +593,15 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>418485.96241406</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +623,19 @@
         <v>1187.6484</v>
       </c>
       <c r="G8" t="n">
-        <v>417298.31401406</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4.23</v>
       </c>
       <c r="I8" t="n">
         <v>4.23</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +657,23 @@
         <v>102444.4214</v>
       </c>
       <c r="G9" t="n">
-        <v>519742.7354140599</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4.21</v>
       </c>
       <c r="I9" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>4.23</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +695,23 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>519752.7354140599</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4.22</v>
       </c>
       <c r="I10" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,24 +733,21 @@
         <v>329413.8991</v>
       </c>
       <c r="G11" t="n">
-        <v>849166.6345140599</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,24 +769,21 @@
         <v>11516.249</v>
       </c>
       <c r="G12" t="n">
-        <v>860682.8835140598</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,24 +805,21 @@
         <v>6863.4471</v>
       </c>
       <c r="G13" t="n">
-        <v>853819.4364140598</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +841,21 @@
         <v>10954.5885</v>
       </c>
       <c r="G14" t="n">
-        <v>853819.4364140598</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +877,21 @@
         <v>40377.0064</v>
       </c>
       <c r="G15" t="n">
-        <v>853819.4364140598</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +913,21 @@
         <v>146.4622</v>
       </c>
       <c r="G16" t="n">
-        <v>853672.9742140599</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +949,21 @@
         <v>2003366</v>
       </c>
       <c r="G17" t="n">
-        <v>-1149693.02578594</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +985,21 @@
         <v>3011224</v>
       </c>
       <c r="G18" t="n">
-        <v>1861530.97421406</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1021,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>1861540.97421406</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1057,21 @@
         <v>3022560.8767</v>
       </c>
       <c r="G20" t="n">
-        <v>-1161019.90248594</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1093,21 @@
         <v>40950.4784</v>
       </c>
       <c r="G21" t="n">
-        <v>-1201970.38088594</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1129,21 @@
         <v>4486184.216</v>
       </c>
       <c r="G22" t="n">
-        <v>3284213.83511406</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,24 +1165,21 @@
         <v>4460080.197</v>
       </c>
       <c r="G23" t="n">
-        <v>3284213.83511406</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,24 +1201,21 @@
         <v>6016622.0704</v>
       </c>
       <c r="G24" t="n">
-        <v>3284213.83511406</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1347,24 +1237,21 @@
         <v>9633121</v>
       </c>
       <c r="G25" t="n">
-        <v>3284213.83511406</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1386,24 +1273,21 @@
         <v>8443735</v>
       </c>
       <c r="G26" t="n">
-        <v>11727948.83511406</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1425,24 +1309,21 @@
         <v>9861452.045399999</v>
       </c>
       <c r="G27" t="n">
-        <v>21589400.88051406</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1464,24 +1345,21 @@
         <v>9869873</v>
       </c>
       <c r="G28" t="n">
-        <v>21589400.88051406</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1503,24 +1381,21 @@
         <v>8000000</v>
       </c>
       <c r="G29" t="n">
-        <v>29589400.88051406</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1542,24 +1417,21 @@
         <v>9000000</v>
       </c>
       <c r="G30" t="n">
-        <v>29589400.88051406</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1581,24 +1453,21 @@
         <v>6452258</v>
       </c>
       <c r="G31" t="n">
-        <v>29589400.88051406</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1620,24 +1489,21 @@
         <v>5254.5457</v>
       </c>
       <c r="G32" t="n">
-        <v>29584146.33481406</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1659,24 +1525,21 @@
         <v>5253.7914</v>
       </c>
       <c r="G33" t="n">
-        <v>29578892.54341406</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1698,24 +1561,21 @@
         <v>12.1779</v>
       </c>
       <c r="G34" t="n">
-        <v>29578904.72131406</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1737,24 +1597,21 @@
         <v>9855214</v>
       </c>
       <c r="G35" t="n">
-        <v>19723690.72131406</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1776,24 +1633,21 @@
         <v>17775.5971</v>
       </c>
       <c r="G36" t="n">
-        <v>19741466.31841406</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1815,24 +1669,21 @@
         <v>8961591</v>
       </c>
       <c r="G37" t="n">
-        <v>10779875.31841406</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,24 +1705,21 @@
         <v>9757661</v>
       </c>
       <c r="G38" t="n">
-        <v>10779875.31841406</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1893,24 +1741,21 @@
         <v>8642059.4366</v>
       </c>
       <c r="G39" t="n">
-        <v>10779875.31841406</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,24 +1777,21 @@
         <v>8187214.2031</v>
       </c>
       <c r="G40" t="n">
-        <v>10779875.31841406</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1971,24 +1813,21 @@
         <v>9854980.0593</v>
       </c>
       <c r="G41" t="n">
-        <v>10779875.31841406</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,24 +1849,21 @@
         <v>68181.8181</v>
       </c>
       <c r="G42" t="n">
-        <v>10711693.50031406</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2049,24 +1885,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>10711703.50031406</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,24 +1921,21 @@
         <v>16829273.6396</v>
       </c>
       <c r="G44" t="n">
-        <v>-6117570.139285939</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2127,24 +1957,21 @@
         <v>151559.2213</v>
       </c>
       <c r="G45" t="n">
-        <v>-6269129.360585939</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,24 +1993,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-6269119.360585939</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2205,24 +2029,21 @@
         <v>5014.0044</v>
       </c>
       <c r="G47" t="n">
-        <v>-6274133.364985939</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,24 +2065,21 @@
         <v>133339.4546</v>
       </c>
       <c r="G48" t="n">
-        <v>-6274133.364985939</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2283,24 +2101,21 @@
         <v>15.9624</v>
       </c>
       <c r="G49" t="n">
-        <v>-6274117.40258594</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2322,24 +2137,21 @@
         <v>247837.372</v>
       </c>
       <c r="G50" t="n">
-        <v>-6521954.77458594</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2361,24 +2173,21 @@
         <v>17311.9101</v>
       </c>
       <c r="G51" t="n">
-        <v>-6539266.68468594</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,24 +2209,21 @@
         <v>8187214.2031</v>
       </c>
       <c r="G52" t="n">
-        <v>1647947.51841406</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2439,24 +2245,21 @@
         <v>8490444.3587</v>
       </c>
       <c r="G53" t="n">
-        <v>1647947.51841406</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2478,24 +2281,21 @@
         <v>8504.4467</v>
       </c>
       <c r="G54" t="n">
-        <v>1639443.07171406</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2517,24 +2317,21 @@
         <v>23645.1642</v>
       </c>
       <c r="G55" t="n">
-        <v>1663088.23591406</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2556,24 +2353,21 @@
         <v>7595.4606</v>
       </c>
       <c r="G56" t="n">
-        <v>1663088.23591406</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2595,24 +2389,21 @@
         <v>7790.6308</v>
       </c>
       <c r="G57" t="n">
-        <v>1655297.60511406</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2634,24 +2425,21 @@
         <v>23371.8924</v>
       </c>
       <c r="G58" t="n">
-        <v>1631925.71271406</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2673,24 +2461,21 @@
         <v>298.5915</v>
       </c>
       <c r="G59" t="n">
-        <v>1632224.30421406</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2712,24 +2497,21 @@
         <v>37300</v>
       </c>
       <c r="G60" t="n">
-        <v>1669524.30421406</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2751,24 +2533,21 @@
         <v>189.2271</v>
       </c>
       <c r="G61" t="n">
-        <v>1669524.30421406</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,24 +2569,21 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>1669514.30421406</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2829,24 +2605,21 @@
         <v>8512861.237600001</v>
       </c>
       <c r="G63" t="n">
-        <v>-6843346.93338594</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2868,24 +2641,21 @@
         <v>19279375.9692</v>
       </c>
       <c r="G64" t="n">
-        <v>-6843346.93338594</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2907,24 +2677,21 @@
         <v>9286749.232899999</v>
       </c>
       <c r="G65" t="n">
-        <v>-6843346.93338594</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2946,24 +2713,21 @@
         <v>238.2629</v>
       </c>
       <c r="G66" t="n">
-        <v>-6843108.67048594</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2985,24 +2749,21 @@
         <v>45181.7371</v>
       </c>
       <c r="G67" t="n">
-        <v>-6843108.67048594</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3024,24 +2785,21 @@
         <v>109193.2084</v>
       </c>
       <c r="G68" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3063,24 +2821,21 @@
         <v>854.0983</v>
       </c>
       <c r="G69" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3102,24 +2857,21 @@
         <v>4000</v>
       </c>
       <c r="G70" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3141,24 +2893,21 @@
         <v>18000</v>
       </c>
       <c r="G71" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3180,24 +2929,21 @@
         <v>163999.1803</v>
       </c>
       <c r="G72" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3219,24 +2965,21 @@
         <v>3100</v>
       </c>
       <c r="G73" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3258,24 +3001,21 @@
         <v>122999.3559</v>
       </c>
       <c r="G74" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3297,24 +3037,21 @@
         <v>31100.9766</v>
       </c>
       <c r="G75" t="n">
-        <v>-6733915.46208594</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3336,24 +3073,21 @@
         <v>10.0467</v>
       </c>
       <c r="G76" t="n">
-        <v>-6733905.41538594</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3375,24 +3109,21 @@
         <v>99</v>
       </c>
       <c r="G77" t="n">
-        <v>-6733806.41538594</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3414,24 +3145,21 @@
         <v>241187.9302</v>
       </c>
       <c r="G78" t="n">
-        <v>-6492618.48518594</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3453,24 +3181,21 @@
         <v>389355.7730602326</v>
       </c>
       <c r="G79" t="n">
-        <v>-6103262.712125707</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3492,24 +3217,21 @@
         <v>60000</v>
       </c>
       <c r="G80" t="n">
-        <v>-6163262.712125707</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3531,24 +3253,21 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-6163252.712125707</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3570,24 +3289,21 @@
         <v>200715.5205</v>
       </c>
       <c r="G82" t="n">
-        <v>-6363968.232625707</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3609,24 +3325,21 @@
         <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>-6363718.232625707</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3648,24 +3361,21 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-6363708.232625707</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3687,24 +3397,21 @@
         <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>-6363728.232625707</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3726,24 +3433,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-6363738.232625707</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3765,24 +3469,21 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-6363738.232625707</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3804,24 +3505,21 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-6363728.232625707</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3843,24 +3541,21 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-6363738.232625707</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3882,24 +3577,21 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-6363728.232625707</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3921,24 +3613,21 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-6363718.232625707</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3960,24 +3649,21 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-6363708.232625707</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3999,24 +3685,21 @@
         <v>21500</v>
       </c>
       <c r="G93" t="n">
-        <v>-6385208.232625707</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4038,24 +3721,21 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-6385198.232625707</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4077,24 +3757,21 @@
         <v>197.0046</v>
       </c>
       <c r="G95" t="n">
-        <v>-6385395.237225707</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4116,24 +3793,21 @@
         <v>13173.3411</v>
       </c>
       <c r="G96" t="n">
-        <v>-6398568.578325707</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4155,24 +3829,21 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-6398558.578325707</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4194,24 +3865,21 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-6398548.578325707</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4233,24 +3901,21 @@
         <v>64981.8429</v>
       </c>
       <c r="G99" t="n">
-        <v>-6463530.421225706</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,24 +3937,21 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>-6463520.421225706</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4311,24 +3973,21 @@
         <v>36420.6976</v>
       </c>
       <c r="G101" t="n">
-        <v>-6499941.118825706</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4350,24 +4009,21 @@
         <v>79704.6819</v>
       </c>
       <c r="G102" t="n">
-        <v>-6579645.800725706</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4389,24 +4045,21 @@
         <v>56589.866</v>
       </c>
       <c r="G103" t="n">
-        <v>-6523055.934725706</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4428,24 +4081,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-6523045.934725706</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4467,24 +4117,21 @@
         <v>120243.4504</v>
       </c>
       <c r="G105" t="n">
-        <v>-6643289.385125706</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4506,24 +4153,21 @@
         <v>8690</v>
       </c>
       <c r="G106" t="n">
-        <v>-6643289.385125706</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4545,24 +4189,21 @@
         <v>93328.9198</v>
       </c>
       <c r="G107" t="n">
-        <v>-6643289.385125706</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4584,24 +4225,21 @@
         <v>284999.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>-6928289.385025706</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4623,24 +4261,21 @@
         <v>54920</v>
       </c>
       <c r="G109" t="n">
-        <v>-6873369.385025706</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4662,24 +4297,21 @@
         <v>488934.9238</v>
       </c>
       <c r="G110" t="n">
-        <v>-6384434.461225706</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4701,24 +4333,21 @@
         <v>60000</v>
       </c>
       <c r="G111" t="n">
-        <v>-6324434.461225706</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4740,24 +4369,21 @@
         <v>242103.2594</v>
       </c>
       <c r="G112" t="n">
-        <v>-6566537.720625706</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4779,24 +4405,21 @@
         <v>4937.0071</v>
       </c>
       <c r="G113" t="n">
-        <v>-6566537.720625706</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,24 +4441,21 @@
         <v>189893.2703640909</v>
       </c>
       <c r="G114" t="n">
-        <v>-6376644.450261615</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4857,24 +4477,21 @@
         <v>55081.967</v>
       </c>
       <c r="G115" t="n">
-        <v>-6431726.417261615</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4896,24 +4513,21 @@
         <v>3000</v>
       </c>
       <c r="G116" t="n">
-        <v>-6428726.417261615</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4935,24 +4549,21 @@
         <v>1650</v>
       </c>
       <c r="G117" t="n">
-        <v>-6428726.417261615</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,24 +4585,21 @@
         <v>35284.5348</v>
       </c>
       <c r="G118" t="n">
-        <v>-6464010.952061615</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5013,24 +4621,21 @@
         <v>3000</v>
       </c>
       <c r="G119" t="n">
-        <v>-6467010.952061615</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5052,24 +4657,21 @@
         <v>182956.4113</v>
       </c>
       <c r="G120" t="n">
-        <v>-6649967.363361615</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5091,24 +4693,21 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-6649957.363361615</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5130,24 +4729,21 @@
         <v>6695.8429</v>
       </c>
       <c r="G122" t="n">
-        <v>-6643261.520461615</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5169,24 +4765,21 @@
         <v>1123268.279405579</v>
       </c>
       <c r="G123" t="n">
-        <v>-5519993.241056036</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5208,24 +4801,21 @@
         <v>11204.9077</v>
       </c>
       <c r="G124" t="n">
-        <v>-5531198.148756037</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5247,24 +4837,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-5531188.148756037</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5286,24 +4873,21 @@
         <v>57923.503</v>
       </c>
       <c r="G126" t="n">
-        <v>-5589111.651756036</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5325,24 +4909,21 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-5589101.651756036</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5364,24 +4945,21 @@
         <v>39999</v>
       </c>
       <c r="G128" t="n">
-        <v>-5629100.651756036</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5403,24 +4981,21 @@
         <v>2500</v>
       </c>
       <c r="G129" t="n">
-        <v>-5626600.651756036</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5442,24 +5017,21 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>-5626500.651756036</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5481,24 +5053,21 @@
         <v>2645.1901</v>
       </c>
       <c r="G131" t="n">
-        <v>-5626500.651756036</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5520,24 +5089,21 @@
         <v>11837.8684</v>
       </c>
       <c r="G132" t="n">
-        <v>-5638338.520156036</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5559,24 +5125,21 @@
         <v>139289.4038</v>
       </c>
       <c r="G133" t="n">
-        <v>-5777627.923956037</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5598,24 +5161,21 @@
         <v>1333338.7475</v>
       </c>
       <c r="G134" t="n">
-        <v>-7110966.671456037</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5637,24 +5197,21 @@
         <v>125305.0158538462</v>
       </c>
       <c r="G135" t="n">
-        <v>-6985661.655602191</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5676,24 +5233,21 @@
         <v>16137.7916</v>
       </c>
       <c r="G136" t="n">
-        <v>-7001799.447202191</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5715,24 +5269,21 @@
         <v>73130</v>
       </c>
       <c r="G137" t="n">
-        <v>-6928669.447202191</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5754,24 +5305,21 @@
         <v>125669.0107</v>
       </c>
       <c r="G138" t="n">
-        <v>-7054338.457902191</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5793,24 +5341,21 @@
         <v>65611.1186</v>
       </c>
       <c r="G139" t="n">
-        <v>-7054338.457902191</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5832,24 +5377,21 @@
         <v>663.492</v>
       </c>
       <c r="G140" t="n">
-        <v>-7053674.965902192</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5871,24 +5413,21 @@
         <v>3254.3577</v>
       </c>
       <c r="G141" t="n">
-        <v>-7056929.323602191</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5910,24 +5449,21 @@
         <v>6951.0764</v>
       </c>
       <c r="G142" t="n">
-        <v>-7056929.323602191</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5949,24 +5485,21 @@
         <v>137326.2585</v>
       </c>
       <c r="G143" t="n">
-        <v>-6919603.065102192</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5988,24 +5521,21 @@
         <v>80681.6933</v>
       </c>
       <c r="G144" t="n">
-        <v>-6919603.065102192</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6027,24 +5557,21 @@
         <v>22215.2518</v>
       </c>
       <c r="G145" t="n">
-        <v>-6919603.065102192</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6066,24 +5593,21 @@
         <v>180801.1775</v>
       </c>
       <c r="G146" t="n">
-        <v>-7100404.242602192</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6105,24 +5629,21 @@
         <v>125669.0117</v>
       </c>
       <c r="G147" t="n">
-        <v>-7226073.254302192</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6144,24 +5665,21 @@
         <v>24.1928</v>
       </c>
       <c r="G148" t="n">
-        <v>-7226049.061502191</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6183,24 +5701,21 @@
         <v>15525.3863</v>
       </c>
       <c r="G149" t="n">
-        <v>-7226049.061502191</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6222,24 +5737,21 @@
         <v>56107.9754</v>
       </c>
       <c r="G150" t="n">
-        <v>-7282157.036902191</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6261,24 +5773,21 @@
         <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>-7282147.036902191</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6300,24 +5809,21 @@
         <v>257.9546</v>
       </c>
       <c r="G152" t="n">
-        <v>-7282147.036902191</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6339,24 +5845,21 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>-7282137.036902191</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6378,24 +5881,21 @@
         <v>6188.3101</v>
       </c>
       <c r="G154" t="n">
-        <v>-7288325.347002191</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6417,24 +5917,21 @@
         <v>72214.05319999999</v>
       </c>
       <c r="G155" t="n">
-        <v>-7360539.400202191</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6456,24 +5953,21 @@
         <v>205308.2753</v>
       </c>
       <c r="G156" t="n">
-        <v>-7565847.675502191</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6495,24 +5989,21 @@
         <v>56697.217</v>
       </c>
       <c r="G157" t="n">
-        <v>-7509150.458502191</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6534,24 +6025,21 @@
         <v>182127.3935</v>
       </c>
       <c r="G158" t="n">
-        <v>-7691277.852002191</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6573,24 +6061,21 @@
         <v>23741.4032</v>
       </c>
       <c r="G159" t="n">
-        <v>-7691277.852002191</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6612,24 +6097,21 @@
         <v>25617.3247</v>
       </c>
       <c r="G160" t="n">
-        <v>-7716895.176702191</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6651,24 +6133,21 @@
         <v>768.6635</v>
       </c>
       <c r="G161" t="n">
-        <v>-7716895.176702191</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6690,24 +6169,21 @@
         <v>21427.5274</v>
       </c>
       <c r="G162" t="n">
-        <v>-7738322.704102191</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6729,24 +6205,21 @@
         <v>9035.552600000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-7747358.256702191</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6768,24 +6241,21 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>-7747348.256702191</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6807,24 +6277,21 @@
         <v>17424.5863</v>
       </c>
       <c r="G165" t="n">
-        <v>-7764772.843002191</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6846,24 +6313,21 @@
         <v>11.9815</v>
       </c>
       <c r="G166" t="n">
-        <v>-7764760.861502191</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6885,24 +6349,21 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>-7764860.861502191</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6924,24 +6385,21 @@
         <v>34006.046</v>
       </c>
       <c r="G168" t="n">
-        <v>-7764860.861502191</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6963,24 +6421,21 @@
         <v>14500</v>
       </c>
       <c r="G169" t="n">
-        <v>-7750360.861502191</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7002,24 +6457,21 @@
         <v>764491.3898</v>
       </c>
       <c r="G170" t="n">
-        <v>-8514852.25130219</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7041,24 +6493,21 @@
         <v>167.645</v>
       </c>
       <c r="G171" t="n">
-        <v>-8514684.606302191</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7080,24 +6529,21 @@
         <v>1133598.044827416</v>
       </c>
       <c r="G172" t="n">
-        <v>-7381086.561474774</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7119,24 +6565,21 @@
         <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>-7381186.561474774</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7158,24 +6601,21 @@
         <v>31108.8278</v>
       </c>
       <c r="G174" t="n">
-        <v>-7412295.389274774</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7197,24 +6637,21 @@
         <v>1301</v>
       </c>
       <c r="G175" t="n">
-        <v>-7413596.389274774</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7236,24 +6673,21 @@
         <v>40</v>
       </c>
       <c r="G176" t="n">
-        <v>-7413596.389274774</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7275,24 +6709,21 @@
         <v>38048.8547</v>
       </c>
       <c r="G177" t="n">
-        <v>-7451645.243974774</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7314,24 +6745,21 @@
         <v>8065469.0929</v>
       </c>
       <c r="G178" t="n">
-        <v>-15517114.33687477</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7353,24 +6781,21 @@
         <v>8044925.4302</v>
       </c>
       <c r="G179" t="n">
-        <v>-7472188.906674773</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7392,24 +6817,21 @@
         <v>16045490.8876</v>
       </c>
       <c r="G180" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7431,24 +6853,21 @@
         <v>8545490.887</v>
       </c>
       <c r="G181" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7470,24 +6889,21 @@
         <v>16000000</v>
       </c>
       <c r="G182" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7509,24 +6925,21 @@
         <v>24005044.8944</v>
       </c>
       <c r="G183" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7548,24 +6961,21 @@
         <v>7500000</v>
       </c>
       <c r="G184" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7587,24 +6997,21 @@
         <v>16074040</v>
       </c>
       <c r="G185" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7626,24 +7033,21 @@
         <v>8005555</v>
       </c>
       <c r="G186" t="n">
-        <v>8573301.980925225</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7665,24 +7069,21 @@
         <v>17509250</v>
       </c>
       <c r="G187" t="n">
-        <v>26082551.98092522</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7704,24 +7105,21 @@
         <v>24509250</v>
       </c>
       <c r="G188" t="n">
-        <v>50591801.98092522</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7743,24 +7141,21 @@
         <v>25609250</v>
       </c>
       <c r="G189" t="n">
-        <v>50591801.98092522</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7782,24 +7177,21 @@
         <v>16759077.555</v>
       </c>
       <c r="G190" t="n">
-        <v>33832724.42592523</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7821,24 +7213,21 @@
         <v>17837955.5831</v>
       </c>
       <c r="G191" t="n">
-        <v>33832724.42592523</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7860,24 +7249,21 @@
         <v>9000000</v>
       </c>
       <c r="G192" t="n">
-        <v>24832724.42592523</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7899,24 +7285,21 @@
         <v>32139572.869</v>
       </c>
       <c r="G193" t="n">
-        <v>56972297.29492523</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7938,24 +7321,21 @@
         <v>17281844.4268</v>
       </c>
       <c r="G194" t="n">
-        <v>74254141.72172523</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7977,24 +7357,21 @@
         <v>8829262.557</v>
       </c>
       <c r="G195" t="n">
-        <v>83083404.27872522</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8016,24 +7393,21 @@
         <v>247914.9404438914</v>
       </c>
       <c r="G196" t="n">
-        <v>83331319.21916911</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8055,24 +7429,21 @@
         <v>11895.6488</v>
       </c>
       <c r="G197" t="n">
-        <v>83331319.21916911</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8094,24 +7465,21 @@
         <v>100</v>
       </c>
       <c r="G198" t="n">
-        <v>83331319.21916911</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8133,24 +7501,21 @@
         <v>500</v>
       </c>
       <c r="G199" t="n">
-        <v>83330819.21916911</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8172,24 +7537,21 @@
         <v>79.45820000000001</v>
       </c>
       <c r="G200" t="n">
-        <v>83330819.21916911</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8211,24 +7573,21 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>83330829.21916911</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8250,24 +7609,21 @@
         <v>58588.0694</v>
       </c>
       <c r="G202" t="n">
-        <v>83272241.14976911</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8289,24 +7645,21 @@
         <v>107488.7195</v>
       </c>
       <c r="G203" t="n">
-        <v>83379729.86926912</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8328,24 +7681,21 @@
         <v>227947.3474</v>
       </c>
       <c r="G204" t="n">
-        <v>83151782.52186912</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8367,24 +7717,21 @@
         <v>185220.8717</v>
       </c>
       <c r="G205" t="n">
-        <v>83151782.52186912</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8406,24 +7753,21 @@
         <v>112350</v>
       </c>
       <c r="G206" t="n">
-        <v>83151782.52186912</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8445,24 +7789,21 @@
         <v>245428.1973</v>
       </c>
       <c r="G207" t="n">
-        <v>83397210.71916912</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8484,26 +7825,21 @@
         <v>48160.11787258427</v>
       </c>
       <c r="G208" t="n">
-        <v>83397210.71916912</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1.069519230769231</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1.021739130434783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8525,18 +7861,23 @@
         <v>35000</v>
       </c>
       <c r="G209" t="n">
-        <v>83397210.71916912</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1.051737588652482</v>
+      </c>
       <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>1.021739130434783</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8558,18 +7899,15 @@
         <v>609.2333274157303</v>
       </c>
       <c r="G210" t="n">
-        <v>83396601.48584171</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8591,18 +7929,15 @@
         <v>144312.5243</v>
       </c>
       <c r="G211" t="n">
-        <v>83252288.96154171</v>
-      </c>
-      <c r="H211" t="n">
         <v>2</v>
       </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8624,18 +7959,15 @@
         <v>644129.2438000001</v>
       </c>
       <c r="G212" t="n">
-        <v>83252288.96154171</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8657,18 +7989,15 @@
         <v>379868.6775</v>
       </c>
       <c r="G213" t="n">
-        <v>83252288.96154171</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8690,18 +8019,15 @@
         <v>113082.6901</v>
       </c>
       <c r="G214" t="n">
-        <v>83252288.96154171</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8723,18 +8049,15 @@
         <v>28921.6318</v>
       </c>
       <c r="G215" t="n">
-        <v>83252288.96154171</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8756,18 +8079,15 @@
         <v>625.7954</v>
       </c>
       <c r="G216" t="n">
-        <v>83251663.16614172</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8789,18 +8109,15 @@
         <v>40</v>
       </c>
       <c r="G217" t="n">
-        <v>83251703.16614172</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8822,18 +8139,15 @@
         <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>83251713.16614172</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8855,18 +8169,15 @@
         <v>5716.5702</v>
       </c>
       <c r="G219" t="n">
-        <v>83245996.59594172</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8888,18 +8199,15 @@
         <v>8522.3266</v>
       </c>
       <c r="G220" t="n">
-        <v>83245996.59594172</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8921,18 +8229,15 @@
         <v>498</v>
       </c>
       <c r="G221" t="n">
-        <v>83245996.59594172</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8954,18 +8259,15 @@
         <v>290</v>
       </c>
       <c r="G222" t="n">
-        <v>83246286.59594172</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8987,18 +8289,15 @@
         <v>98801.1963</v>
       </c>
       <c r="G223" t="n">
-        <v>83246286.59594172</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9020,18 +8319,15 @@
         <v>2775.4783</v>
       </c>
       <c r="G224" t="n">
-        <v>83243511.11764172</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9053,18 +8349,15 @@
         <v>317954.7726</v>
       </c>
       <c r="G225" t="n">
-        <v>83243511.11764172</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9086,18 +8379,15 @@
         <v>11.9516</v>
       </c>
       <c r="G226" t="n">
-        <v>83243499.16604172</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9119,18 +8409,15 @@
         <v>11.9909</v>
       </c>
       <c r="G227" t="n">
-        <v>83243511.15694171</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9152,18 +8439,15 @@
         <v>76763.25380000001</v>
       </c>
       <c r="G228" t="n">
-        <v>83166747.90314171</v>
-      </c>
-      <c r="H228" t="n">
         <v>2</v>
       </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9185,18 +8469,15 @@
         <v>2540.0992</v>
       </c>
       <c r="G229" t="n">
-        <v>83164207.80394171</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9218,18 +8499,15 @@
         <v>10432.2171</v>
       </c>
       <c r="G230" t="n">
-        <v>83174640.02104171</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9251,18 +8529,15 @@
         <v>276.923</v>
       </c>
       <c r="G231" t="n">
-        <v>83174640.02104171</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9284,18 +8559,15 @@
         <v>276.2307</v>
       </c>
       <c r="G232" t="n">
-        <v>83174363.79034171</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9317,18 +8589,15 @@
         <v>10</v>
       </c>
       <c r="G233" t="n">
-        <v>83174373.79034171</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9350,18 +8619,15 @@
         <v>488.4794</v>
       </c>
       <c r="G234" t="n">
-        <v>83173885.31094171</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9383,18 +8649,15 @@
         <v>5833.777</v>
       </c>
       <c r="G235" t="n">
-        <v>83179719.08794171</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9416,18 +8679,15 @@
         <v>950.306</v>
       </c>
       <c r="G236" t="n">
-        <v>83178768.78194171</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9449,18 +8709,15 @@
         <v>84588.80710000001</v>
       </c>
       <c r="G237" t="n">
-        <v>83178768.78194171</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9482,18 +8739,15 @@
         <v>0.0003</v>
       </c>
       <c r="G238" t="n">
-        <v>83178768.78194171</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9515,18 +8769,15 @@
         <v>11.9609</v>
       </c>
       <c r="G239" t="n">
-        <v>83178768.78194171</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9548,18 +8799,15 @@
         <v>11.6438</v>
       </c>
       <c r="G240" t="n">
-        <v>83178780.42574172</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9581,18 +8829,15 @@
         <v>460.6111</v>
       </c>
       <c r="G241" t="n">
-        <v>83178319.81464171</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9614,18 +8859,15 @@
         <v>81082.74800000001</v>
       </c>
       <c r="G242" t="n">
-        <v>83178319.81464171</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9647,18 +8889,15 @@
         <v>56318.7</v>
       </c>
       <c r="G243" t="n">
-        <v>83178319.81464171</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9680,18 +8919,15 @@
         <v>117836.0948</v>
       </c>
       <c r="G244" t="n">
-        <v>83296155.90944171</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9713,18 +8949,15 @@
         <v>3592.8362</v>
       </c>
       <c r="G245" t="n">
-        <v>83299748.74564171</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9746,18 +8979,15 @@
         <v>70000</v>
       </c>
       <c r="G246" t="n">
-        <v>83299748.74564171</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9779,18 +9009,15 @@
         <v>22530</v>
       </c>
       <c r="G247" t="n">
-        <v>83299748.74564171</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9812,18 +9039,15 @@
         <v>210</v>
       </c>
       <c r="G248" t="n">
-        <v>83299958.74564171</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9845,18 +9069,15 @@
         <v>96122.83620000001</v>
       </c>
       <c r="G249" t="n">
-        <v>83203835.90944171</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9878,18 +9099,15 @@
         <v>2470</v>
       </c>
       <c r="G250" t="n">
-        <v>83201365.90944171</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9911,18 +9129,15 @@
         <v>143722.7163</v>
       </c>
       <c r="G251" t="n">
-        <v>83201365.90944171</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9944,18 +9159,15 @@
         <v>149.9255</v>
       </c>
       <c r="G252" t="n">
-        <v>83201215.9839417</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9977,18 +9189,15 @@
         <v>671</v>
       </c>
       <c r="G253" t="n">
-        <v>83201886.9839417</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10010,18 +9219,15 @@
         <v>100</v>
       </c>
       <c r="G254" t="n">
-        <v>83201886.9839417</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10043,18 +9249,15 @@
         <v>24562.0027</v>
       </c>
       <c r="G255" t="n">
-        <v>83177324.9812417</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10076,18 +9279,15 @@
         <v>70</v>
       </c>
       <c r="G256" t="n">
-        <v>83177394.9812417</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10109,18 +9309,15 @@
         <v>11161.5408</v>
       </c>
       <c r="G257" t="n">
-        <v>83166233.4404417</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10142,18 +9339,15 @@
         <v>363490.1055</v>
       </c>
       <c r="G258" t="n">
-        <v>83529723.5459417</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10175,18 +9369,15 @@
         <v>10093.9426</v>
       </c>
       <c r="G259" t="n">
-        <v>83519629.6033417</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10208,18 +9399,15 @@
         <v>7035.2586</v>
       </c>
       <c r="G260" t="n">
-        <v>83519629.6033417</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10241,18 +9429,15 @@
         <v>194.1203</v>
       </c>
       <c r="G261" t="n">
-        <v>83519435.4830417</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10274,18 +9459,15 @@
         <v>22.9525</v>
       </c>
       <c r="G262" t="n">
-        <v>83519458.4355417</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10307,18 +9489,15 @@
         <v>66386.4988</v>
       </c>
       <c r="G263" t="n">
-        <v>83453071.93674171</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10340,18 +9519,15 @@
         <v>83900.2268</v>
       </c>
       <c r="G264" t="n">
-        <v>83453071.93674171</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10373,18 +9549,15 @@
         <v>22.6216</v>
       </c>
       <c r="G265" t="n">
-        <v>83453094.55834171</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10406,18 +9579,15 @@
         <v>10</v>
       </c>
       <c r="G266" t="n">
-        <v>83453084.55834171</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10439,18 +9609,15 @@
         <v>10</v>
       </c>
       <c r="G267" t="n">
-        <v>83453094.55834171</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10472,18 +9639,15 @@
         <v>10</v>
       </c>
       <c r="G268" t="n">
-        <v>83453084.55834171</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10505,18 +9669,15 @@
         <v>10</v>
       </c>
       <c r="G269" t="n">
-        <v>83453094.55834171</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10538,18 +9699,15 @@
         <v>20</v>
       </c>
       <c r="G270" t="n">
-        <v>83453074.55834171</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10571,18 +9729,15 @@
         <v>22486.87613685393</v>
       </c>
       <c r="G271" t="n">
-        <v>83475561.43447857</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10604,18 +9759,15 @@
         <v>274766.3551</v>
       </c>
       <c r="G272" t="n">
-        <v>83200795.07937856</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10637,18 +9789,15 @@
         <v>550000</v>
       </c>
       <c r="G273" t="n">
-        <v>82650795.07937856</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
